--- a/public/plantilla_pedido.xlsx
+++ b/public/plantilla_pedido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743AFAC6-BA5E-4AD5-B14A-DFED6AF334DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10EA2F6-667D-4E68-8CA9-5A3574C02C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="174">
   <si>
     <t xml:space="preserve">      TYRSA CONSORCIO, S.A. DE C.V.</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>{% endfor %}</t>
+  </si>
+  <si>
+    <t>{{order.ncontizacion}}</t>
   </si>
 </sst>
 </file>
@@ -1228,292 +1231,292 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1766,7 +1769,7 @@
   <dimension ref="A1:AR136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+      <selection activeCell="X12" sqref="X12:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1816,20 +1819,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -1851,32 +1854,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AG2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1895,15 +1898,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="144" t="s">
+      <c r="AE3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -1938,16 +1941,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="145" t="s">
+      <c r="AD4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
-      <c r="AG4" s="145"/>
-      <c r="AH4" s="145"/>
-      <c r="AI4" s="145"/>
-      <c r="AJ4" s="145"/>
-      <c r="AK4" s="145"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -1982,16 +1985,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="146" t="s">
+      <c r="AD5" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2024,18 +2027,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="147" t="s">
+      <c r="AD6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="147"/>
-      <c r="AG6" s="147"/>
-      <c r="AH6" s="148" t="s">
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="148"/>
-      <c r="AJ6" s="148"/>
-      <c r="AK6" s="148"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2112,396 +2115,396 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="149" t="s">
+      <c r="AH8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="149"/>
-      <c r="AJ8" s="149"/>
-      <c r="AK8" s="149"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="133" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="112" t="s">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="133" t="s">
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="132" t="s">
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="138" t="s">
+      <c r="AD9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="138"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="138"/>
-      <c r="AH9" s="57" t="s">
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="69"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="113" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="139" t="s">
+      <c r="AD10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="139"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="140" t="s">
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="AI10" s="140"/>
-      <c r="AJ10" s="140"/>
-      <c r="AK10" s="140"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="57" t="s">
+      <c r="AD11" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="141" t="s">
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="141"/>
-      <c r="AK11" s="141"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="74"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="133" t="s">
+      <c r="M12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="65" t="s">
+      <c r="N12" s="65"/>
+      <c r="O12" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="133" t="s">
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="133"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="133"/>
-      <c r="X12" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="56" t="s">
+      <c r="AD12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="135" t="s">
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="135"/>
-      <c r="AK12" s="135"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="113" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="55" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="115" t="s">
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="83" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="83"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="81"/>
+      <c r="AH15" s="81"/>
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="81"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="54" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="131" t="s">
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="131"/>
-      <c r="AF16" s="131"/>
-      <c r="AG16" s="132" t="s">
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="132"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
@@ -2546,210 +2549,210 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="110" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110" t="s">
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="110" t="s">
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="110" t="s">
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AD18" s="110"/>
-      <c r="AE18" s="110"/>
-      <c r="AF18" s="110"/>
-      <c r="AG18" s="110"/>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
+      <c r="AD18" s="85"/>
+      <c r="AE18" s="85"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="83">
+      <c r="B19" s="81">
         <v>1</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84" t="s">
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84" t="s">
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84" t="s">
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="128" t="s">
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="128"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="54">
+      <c r="B20" s="83">
         <v>2</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="129" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129" t="s">
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-      <c r="Y20" s="129"/>
-      <c r="Z20" s="129"/>
-      <c r="AA20" s="129" t="s">
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="AB20" s="129"/>
-      <c r="AC20" s="130" t="s">
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="AD20" s="130"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="130"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="130"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="89"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="89"/>
+      <c r="AJ20" s="89"/>
+      <c r="AK20" s="89"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="83">
+      <c r="B21" s="81">
         <v>3</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="84" t="s">
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84" t="s">
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84" t="s">
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="128" t="s">
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
@@ -2794,112 +2797,112 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109" t="s">
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109" t="s">
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109" t="s">
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109" t="s">
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="110" t="s">
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="AF23" s="110"/>
-      <c r="AG23" s="110"/>
-      <c r="AH23" s="110"/>
-      <c r="AI23" s="110"/>
-      <c r="AJ23" s="110"/>
-      <c r="AK23" s="110"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="85"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="125" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126" t="s">
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127" t="s">
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127" t="s">
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127" t="s">
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127" t="s">
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="125" t="s">
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="125"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="125"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
@@ -2944,154 +2947,154 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110" t="s">
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110" t="s">
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="110" t="s">
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110" t="s">
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="85"/>
+      <c r="Z26" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="110" t="s">
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="85"/>
+      <c r="AE26" s="85"/>
+      <c r="AF26" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="110"/>
-      <c r="AI26" s="110"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
+      <c r="AG26" s="85"/>
+      <c r="AH26" s="85"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="85"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="55">
+      <c r="B27" s="73">
         <v>1</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="113" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113" t="s">
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="55" t="s">
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="114" t="s">
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="114"/>
-      <c r="AD27" s="114"/>
-      <c r="AE27" s="114"/>
-      <c r="AF27" s="114" t="s">
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="114"/>
-      <c r="AI27" s="114"/>
-      <c r="AJ27" s="114"/>
-      <c r="AK27" s="114"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="93"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="114"/>
-      <c r="AB28" s="114"/>
-      <c r="AC28" s="114"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="114"/>
-      <c r="AI28" s="114"/>
-      <c r="AJ28" s="114"/>
-      <c r="AK28" s="114"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="96"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="93"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="93"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
@@ -3100,38 +3103,38 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="120"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="114"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="93"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
@@ -3140,38 +3143,38 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="114"/>
-      <c r="AI30" s="114"/>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="93"/>
       <c r="AL30" s="4"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -3180,38 +3183,38 @@
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="93"/>
+      <c r="AJ31" s="93"/>
+      <c r="AK31" s="93"/>
       <c r="AL31" s="4"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
@@ -3256,154 +3259,154 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="110" t="s">
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110" t="s">
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110" t="s">
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="110"/>
-      <c r="R33" s="110" t="s">
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="110"/>
-      <c r="X33" s="110"/>
-      <c r="Y33" s="110"/>
-      <c r="Z33" s="110" t="s">
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AA33" s="110"/>
-      <c r="AB33" s="110"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="110"/>
-      <c r="AE33" s="110"/>
-      <c r="AF33" s="110" t="s">
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="85"/>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="85"/>
+      <c r="AE33" s="85"/>
+      <c r="AF33" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AG33" s="110"/>
-      <c r="AH33" s="110"/>
-      <c r="AI33" s="110"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="110"/>
+      <c r="AG33" s="85"/>
+      <c r="AH33" s="85"/>
+      <c r="AI33" s="85"/>
+      <c r="AJ33" s="85"/>
+      <c r="AK33" s="85"/>
       <c r="AL33" s="4"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="55">
+      <c r="B34" s="73">
         <v>2</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="113" t="s">
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113" t="s">
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113" t="s">
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="55" t="s">
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="114" t="s">
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
-      <c r="AC34" s="114"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114" t="s">
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93"/>
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="93"/>
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="116" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="114"/>
-      <c r="AA35" s="114"/>
-      <c r="AB35" s="114"/>
-      <c r="AC35" s="114"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="114"/>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="114"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="114"/>
-      <c r="AK35" s="114"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
@@ -3412,38 +3415,38 @@
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="114"/>
-      <c r="AA36" s="114"/>
-      <c r="AB36" s="114"/>
-      <c r="AC36" s="114"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="114"/>
-      <c r="AF36" s="114"/>
-      <c r="AG36" s="114"/>
-      <c r="AH36" s="114"/>
-      <c r="AI36" s="114"/>
-      <c r="AJ36" s="114"/>
-      <c r="AK36" s="114"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="98"/>
+      <c r="W36" s="98"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93"/>
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="93"/>
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
@@ -3452,38 +3455,38 @@
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="121"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
-      <c r="AB37" s="114"/>
-      <c r="AC37" s="114"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="114"/>
-      <c r="AF37" s="114"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="114"/>
-      <c r="AJ37" s="114"/>
-      <c r="AK37" s="114"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
+      <c r="V37" s="98"/>
+      <c r="W37" s="98"/>
+      <c r="X37" s="98"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
+      <c r="AK37" s="93"/>
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
@@ -3492,38 +3495,38 @@
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="123"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="123"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="123"/>
-      <c r="X38" s="123"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="114"/>
-      <c r="AA38" s="114"/>
-      <c r="AB38" s="114"/>
-      <c r="AC38" s="114"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="114"/>
-      <c r="AF38" s="114"/>
-      <c r="AG38" s="114"/>
-      <c r="AH38" s="114"/>
-      <c r="AI38" s="114"/>
-      <c r="AJ38" s="114"/>
-      <c r="AK38" s="114"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="102"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
+      <c r="AH38" s="93"/>
+      <c r="AI38" s="93"/>
+      <c r="AJ38" s="93"/>
+      <c r="AK38" s="93"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.2">
@@ -3568,154 +3571,154 @@
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="109" t="s">
+      <c r="B40" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="110" t="s">
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110" t="s">
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110" t="s">
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110" t="s">
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110" t="s">
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110" t="s">
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="85"/>
+      <c r="AE40" s="85"/>
+      <c r="AF40" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="110"/>
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="85"/>
+      <c r="AI40" s="85"/>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="85"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="111">
+      <c r="B41" s="103">
         <v>3</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113" t="s">
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113" t="s">
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="55" t="s">
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="114" t="s">
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="AA41" s="114"/>
-      <c r="AB41" s="114"/>
-      <c r="AC41" s="114"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="114"/>
-      <c r="AF41" s="114" t="s">
+      <c r="AA41" s="93"/>
+      <c r="AB41" s="93"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="114"/>
-      <c r="AJ41" s="114"/>
-      <c r="AK41" s="114"/>
+      <c r="AG41" s="93"/>
+      <c r="AH41" s="93"/>
+      <c r="AI41" s="93"/>
+      <c r="AJ41" s="93"/>
+      <c r="AK41" s="93"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116" t="s">
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="114"/>
-      <c r="AA42" s="114"/>
-      <c r="AB42" s="114"/>
-      <c r="AC42" s="114"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
-      <c r="AF42" s="114"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="114"/>
-      <c r="AJ42" s="114"/>
-      <c r="AK42" s="114"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="96"/>
+      <c r="Z42" s="93"/>
+      <c r="AA42" s="93"/>
+      <c r="AB42" s="93"/>
+      <c r="AC42" s="93"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="93"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="93"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.2">
@@ -3724,38 +3727,38 @@
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="114"/>
-      <c r="AB43" s="114"/>
-      <c r="AC43" s="114"/>
-      <c r="AD43" s="114"/>
-      <c r="AE43" s="114"/>
-      <c r="AF43" s="114"/>
-      <c r="AG43" s="114"/>
-      <c r="AH43" s="114"/>
-      <c r="AI43" s="114"/>
-      <c r="AJ43" s="114"/>
-      <c r="AK43" s="114"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
+      <c r="Q43" s="98"/>
+      <c r="R43" s="98"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="98"/>
+      <c r="U43" s="98"/>
+      <c r="V43" s="98"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="99"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="93"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="93"/>
+      <c r="AG43" s="93"/>
+      <c r="AH43" s="93"/>
+      <c r="AI43" s="93"/>
+      <c r="AJ43" s="93"/>
+      <c r="AK43" s="93"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.2">
@@ -3764,38 +3767,38 @@
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="120"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="120"/>
-      <c r="X44" s="120"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="114"/>
-      <c r="AA44" s="114"/>
-      <c r="AB44" s="114"/>
-      <c r="AC44" s="114"/>
-      <c r="AD44" s="114"/>
-      <c r="AE44" s="114"/>
-      <c r="AF44" s="114"/>
-      <c r="AG44" s="114"/>
-      <c r="AH44" s="114"/>
-      <c r="AI44" s="114"/>
-      <c r="AJ44" s="114"/>
-      <c r="AK44" s="114"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="98"/>
+      <c r="V44" s="98"/>
+      <c r="W44" s="98"/>
+      <c r="X44" s="98"/>
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="93"/>
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="93"/>
+      <c r="AC44" s="93"/>
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="93"/>
+      <c r="AF44" s="93"/>
+      <c r="AG44" s="93"/>
+      <c r="AH44" s="93"/>
+      <c r="AI44" s="93"/>
+      <c r="AJ44" s="93"/>
+      <c r="AK44" s="93"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.2">
@@ -3804,38 +3807,38 @@
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
       <c r="E45" s="51"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="123"/>
-      <c r="U45" s="123"/>
-      <c r="V45" s="123"/>
-      <c r="W45" s="123"/>
-      <c r="X45" s="123"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="114"/>
-      <c r="AA45" s="114"/>
-      <c r="AB45" s="114"/>
-      <c r="AC45" s="114"/>
-      <c r="AD45" s="114"/>
-      <c r="AE45" s="114"/>
-      <c r="AF45" s="114"/>
-      <c r="AG45" s="114"/>
-      <c r="AH45" s="114"/>
-      <c r="AI45" s="114"/>
-      <c r="AJ45" s="114"/>
-      <c r="AK45" s="114"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="101"/>
+      <c r="Q45" s="101"/>
+      <c r="R45" s="101"/>
+      <c r="S45" s="101"/>
+      <c r="T45" s="101"/>
+      <c r="U45" s="101"/>
+      <c r="V45" s="101"/>
+      <c r="W45" s="101"/>
+      <c r="X45" s="101"/>
+      <c r="Y45" s="102"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="93"/>
+      <c r="AB45" s="93"/>
+      <c r="AC45" s="93"/>
+      <c r="AD45" s="93"/>
+      <c r="AE45" s="93"/>
+      <c r="AF45" s="93"/>
+      <c r="AG45" s="93"/>
+      <c r="AH45" s="93"/>
+      <c r="AI45" s="93"/>
+      <c r="AJ45" s="93"/>
+      <c r="AK45" s="93"/>
       <c r="AL45" s="4"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.2">
@@ -3889,33 +3892,33 @@
       <c r="F47" s="104"/>
       <c r="G47" s="104"/>
       <c r="H47" s="25"/>
-      <c r="I47" s="105" t="s">
+      <c r="I47" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="105"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="105"/>
-      <c r="Z47" s="105"/>
-      <c r="AA47" s="97" t="s">
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="AB47" s="97"/>
-      <c r="AC47" s="97"/>
-      <c r="AD47" s="97"/>
-      <c r="AE47" s="97"/>
+      <c r="AB47" s="105"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
       <c r="AF47" s="106" t="s">
         <v>144</v>
       </c>
@@ -3937,265 +3940,265 @@
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="107"/>
-      <c r="I48" s="55" t="s">
+      <c r="I48" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="55"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="102" t="s">
+      <c r="AB48" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="AC48" s="102"/>
-      <c r="AD48" s="102"/>
-      <c r="AE48" s="102"/>
-      <c r="AF48" s="108">
+      <c r="AC48" s="108"/>
+      <c r="AD48" s="108"/>
+      <c r="AE48" s="108"/>
+      <c r="AF48" s="109">
         <v>0</v>
       </c>
-      <c r="AG48" s="108"/>
-      <c r="AH48" s="108"/>
-      <c r="AI48" s="108"/>
-      <c r="AJ48" s="108"/>
-      <c r="AK48" s="108"/>
+      <c r="AG48" s="109"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="109"/>
+      <c r="AJ48" s="109"/>
+      <c r="AK48" s="109"/>
       <c r="AL48" s="4"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="96"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="96"/>
-      <c r="X49" s="96"/>
-      <c r="Y49" s="96"/>
-      <c r="Z49" s="96"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="110"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="110"/>
+      <c r="W49" s="110"/>
+      <c r="X49" s="110"/>
+      <c r="Y49" s="110"/>
+      <c r="Z49" s="110"/>
       <c r="AA49" s="27"/>
       <c r="AB49" s="28"/>
-      <c r="AC49" s="102" t="s">
+      <c r="AC49" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="AD49" s="102"/>
-      <c r="AE49" s="102"/>
-      <c r="AF49" s="98">
+      <c r="AD49" s="108"/>
+      <c r="AE49" s="108"/>
+      <c r="AF49" s="111">
         <v>0</v>
       </c>
-      <c r="AG49" s="98"/>
-      <c r="AH49" s="98"/>
-      <c r="AI49" s="98"/>
-      <c r="AJ49" s="98"/>
-      <c r="AK49" s="98"/>
+      <c r="AG49" s="111"/>
+      <c r="AH49" s="111"/>
+      <c r="AI49" s="111"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="111"/>
       <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="96"/>
-      <c r="U50" s="96"/>
-      <c r="V50" s="96"/>
-      <c r="W50" s="96"/>
-      <c r="X50" s="96"/>
-      <c r="Y50" s="96"/>
-      <c r="Z50" s="96"/>
-      <c r="AA50" s="97" t="s">
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="110"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="110"/>
+      <c r="X50" s="110"/>
+      <c r="Y50" s="110"/>
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="AB50" s="97"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="97"/>
-      <c r="AE50" s="97"/>
-      <c r="AF50" s="98">
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="111">
         <v>0</v>
       </c>
-      <c r="AG50" s="98"/>
-      <c r="AH50" s="98"/>
-      <c r="AI50" s="98"/>
-      <c r="AJ50" s="98"/>
-      <c r="AK50" s="98"/>
+      <c r="AG50" s="111"/>
+      <c r="AH50" s="111"/>
+      <c r="AI50" s="111"/>
+      <c r="AJ50" s="111"/>
+      <c r="AK50" s="111"/>
       <c r="AL50" s="4"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="100" t="s">
+      <c r="I51" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="100"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="100"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100"/>
-      <c r="S51" s="100"/>
-      <c r="T51" s="100"/>
-      <c r="U51" s="100"/>
-      <c r="V51" s="100"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="100"/>
-      <c r="Y51" s="100"/>
-      <c r="Z51" s="100"/>
-      <c r="AA51" s="97" t="s">
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
+      <c r="Q51" s="113"/>
+      <c r="R51" s="113"/>
+      <c r="S51" s="113"/>
+      <c r="T51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113"/>
+      <c r="W51" s="113"/>
+      <c r="X51" s="113"/>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="113"/>
+      <c r="AA51" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="97"/>
-      <c r="AF51" s="98">
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="111">
         <v>0</v>
       </c>
-      <c r="AG51" s="98"/>
-      <c r="AH51" s="98"/>
-      <c r="AI51" s="98"/>
-      <c r="AJ51" s="98"/>
-      <c r="AK51" s="98"/>
+      <c r="AG51" s="111"/>
+      <c r="AH51" s="111"/>
+      <c r="AI51" s="111"/>
+      <c r="AJ51" s="111"/>
+      <c r="AK51" s="111"/>
       <c r="AL51" s="4"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="101"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="101"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="101"/>
-      <c r="X52" s="101"/>
-      <c r="Y52" s="101"/>
-      <c r="Z52" s="101"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="114"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114"/>
+      <c r="S52" s="114"/>
+      <c r="T52" s="114"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="114"/>
+      <c r="Y52" s="114"/>
+      <c r="Z52" s="114"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="102" t="s">
+      <c r="AB52" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="AC52" s="102"/>
-      <c r="AD52" s="102"/>
-      <c r="AE52" s="102"/>
-      <c r="AF52" s="103" t="s">
+      <c r="AC52" s="108"/>
+      <c r="AD52" s="108"/>
+      <c r="AE52" s="108"/>
+      <c r="AF52" s="115" t="s">
         <v>146</v>
       </c>
-      <c r="AG52" s="103"/>
-      <c r="AH52" s="103"/>
-      <c r="AI52" s="103"/>
-      <c r="AJ52" s="103"/>
-      <c r="AK52" s="103"/>
+      <c r="AG52" s="115"/>
+      <c r="AH52" s="115"/>
+      <c r="AI52" s="115"/>
+      <c r="AJ52" s="115"/>
+      <c r="AK52" s="115"/>
       <c r="AL52" s="4"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
-      <c r="V53" s="93"/>
-      <c r="W53" s="93"/>
-      <c r="X53" s="93"/>
-      <c r="Y53" s="93"/>
-      <c r="Z53" s="93"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
+      <c r="Z53" s="116"/>
       <c r="AA53" s="30"/>
-      <c r="AB53" s="94" t="s">
+      <c r="AB53" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="AC53" s="94"/>
-      <c r="AD53" s="94"/>
-      <c r="AE53" s="94"/>
-      <c r="AF53" s="95" t="s">
+      <c r="AC53" s="117"/>
+      <c r="AD53" s="117"/>
+      <c r="AE53" s="117"/>
+      <c r="AF53" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="AG53" s="95"/>
-      <c r="AH53" s="95"/>
-      <c r="AI53" s="95"/>
-      <c r="AJ53" s="95"/>
-      <c r="AK53" s="95"/>
+      <c r="AG53" s="118"/>
+      <c r="AH53" s="118"/>
+      <c r="AI53" s="118"/>
+      <c r="AJ53" s="118"/>
+      <c r="AK53" s="118"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
@@ -4244,42 +4247,42 @@
         <v>59</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="58"/>
-      <c r="W55" s="58"/>
-      <c r="X55" s="58"/>
-      <c r="Y55" s="58"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="58"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="119"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="119"/>
+      <c r="S55" s="119"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="119"/>
+      <c r="V55" s="119"/>
+      <c r="W55" s="119"/>
+      <c r="X55" s="119"/>
+      <c r="Y55" s="119"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="119"/>
+      <c r="AB55" s="119"/>
+      <c r="AC55" s="119"/>
+      <c r="AD55" s="119"/>
+      <c r="AE55" s="119"/>
+      <c r="AF55" s="119"/>
+      <c r="AG55" s="119"/>
+      <c r="AH55" s="119"/>
+      <c r="AI55" s="119"/>
+      <c r="AJ55" s="119"/>
+      <c r="AK55" s="119"/>
       <c r="AL55" s="4"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
@@ -4444,39 +4447,39 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62">
+      <c r="C60" s="120"/>
+      <c r="D60" s="121">
         <v>1111</v>
       </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="58" t="s">
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="63" t="str">
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="122" t="str">
         <f>AF53</f>
         <v>{{order.total}}</v>
       </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+      <c r="M60" s="122"/>
+      <c r="N60" s="122"/>
+      <c r="O60" s="122"/>
       <c r="P60" s="4"/>
-      <c r="Q60" s="58" t="s">
+      <c r="Q60" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="58"/>
-      <c r="W60" s="58"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="119"/>
+      <c r="T60" s="119"/>
+      <c r="U60" s="119"/>
+      <c r="V60" s="119"/>
+      <c r="W60" s="119"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -4487,24 +4490,24 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
-      <c r="AH60" s="64" t="s">
+      <c r="AH60" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AI60" s="64"/>
-      <c r="AJ60" s="64"/>
-      <c r="AK60" s="64"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="55"/>
+      <c r="AK60" s="55"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="64" t="str">
+      <c r="B61" s="55" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -4540,306 +4543,306 @@
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
-      <c r="AA62" s="59"/>
-      <c r="AB62" s="59"/>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="59"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="59"/>
-      <c r="AH62" s="59"/>
-      <c r="AI62" s="59"/>
-      <c r="AJ62" s="59"/>
-      <c r="AK62" s="59"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="123"/>
+      <c r="M62" s="123"/>
+      <c r="N62" s="123"/>
+      <c r="O62" s="123"/>
+      <c r="P62" s="123"/>
+      <c r="Q62" s="123"/>
+      <c r="R62" s="123"/>
+      <c r="S62" s="123"/>
+      <c r="T62" s="123"/>
+      <c r="U62" s="123"/>
+      <c r="V62" s="123"/>
+      <c r="W62" s="123"/>
+      <c r="X62" s="123"/>
+      <c r="Y62" s="123"/>
+      <c r="Z62" s="123"/>
+      <c r="AA62" s="123"/>
+      <c r="AB62" s="123"/>
+      <c r="AC62" s="123"/>
+      <c r="AD62" s="123"/>
+      <c r="AE62" s="123"/>
+      <c r="AF62" s="123"/>
+      <c r="AG62" s="123"/>
+      <c r="AH62" s="123"/>
+      <c r="AI62" s="123"/>
+      <c r="AJ62" s="123"/>
+      <c r="AK62" s="123"/>
       <c r="AL62" s="4"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="89" t="s">
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="90" t="s">
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="91" t="s">
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="N63" s="91"/>
-      <c r="O63" s="91"/>
-      <c r="P63" s="90" t="s">
+      <c r="N63" s="127"/>
+      <c r="O63" s="127"/>
+      <c r="P63" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="90"/>
-      <c r="U63" s="90"/>
-      <c r="V63" s="90"/>
-      <c r="W63" s="90"/>
-      <c r="X63" s="90"/>
-      <c r="Y63" s="90"/>
-      <c r="Z63" s="90"/>
-      <c r="AA63" s="90"/>
-      <c r="AB63" s="90"/>
-      <c r="AC63" s="90"/>
-      <c r="AD63" s="90"/>
-      <c r="AE63" s="90"/>
-      <c r="AF63" s="90"/>
-      <c r="AG63" s="90"/>
-      <c r="AH63" s="90" t="s">
+      <c r="Q63" s="126"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="126"/>
+      <c r="U63" s="126"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="126"/>
+      <c r="X63" s="126"/>
+      <c r="Y63" s="126"/>
+      <c r="Z63" s="126"/>
+      <c r="AA63" s="126"/>
+      <c r="AB63" s="126"/>
+      <c r="AC63" s="126"/>
+      <c r="AD63" s="126"/>
+      <c r="AE63" s="126"/>
+      <c r="AF63" s="126"/>
+      <c r="AG63" s="126"/>
+      <c r="AH63" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="AI63" s="90"/>
-      <c r="AJ63" s="90"/>
-      <c r="AK63" s="90"/>
+      <c r="AI63" s="126"/>
+      <c r="AJ63" s="126"/>
+      <c r="AK63" s="126"/>
       <c r="AL63" s="32"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77" t="s">
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="91"/>
-      <c r="P64" s="90" t="s">
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="127"/>
+      <c r="N64" s="127"/>
+      <c r="O64" s="127"/>
+      <c r="P64" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90" t="s">
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
+      <c r="S64" s="126"/>
+      <c r="T64" s="126"/>
+      <c r="U64" s="126"/>
+      <c r="V64" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
-      <c r="Z64" s="90"/>
-      <c r="AA64" s="90"/>
-      <c r="AB64" s="92" t="s">
+      <c r="W64" s="126"/>
+      <c r="X64" s="126"/>
+      <c r="Y64" s="126"/>
+      <c r="Z64" s="126"/>
+      <c r="AA64" s="126"/>
+      <c r="AB64" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="AC64" s="92"/>
-      <c r="AD64" s="92"/>
-      <c r="AE64" s="92"/>
-      <c r="AF64" s="92"/>
-      <c r="AG64" s="92"/>
-      <c r="AH64" s="90"/>
-      <c r="AI64" s="90"/>
-      <c r="AJ64" s="90"/>
-      <c r="AK64" s="90"/>
+      <c r="AC64" s="129"/>
+      <c r="AD64" s="129"/>
+      <c r="AE64" s="129"/>
+      <c r="AF64" s="129"/>
+      <c r="AG64" s="129"/>
+      <c r="AH64" s="126"/>
+      <c r="AI64" s="126"/>
+      <c r="AJ64" s="126"/>
+      <c r="AK64" s="126"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="82" t="s">
+      <c r="C65" s="133"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="83" t="s">
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="84" t="s">
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="85" t="s">
+      <c r="N65" s="86"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="Q65" s="85"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
-      <c r="T65" s="85"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="85" t="s">
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+      <c r="S65" s="135"/>
+      <c r="T65" s="135"/>
+      <c r="U65" s="135"/>
+      <c r="V65" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="W65" s="85"/>
-      <c r="X65" s="85"/>
-      <c r="Y65" s="85"/>
-      <c r="Z65" s="85"/>
-      <c r="AA65" s="85"/>
-      <c r="AB65" s="86" t="s">
+      <c r="W65" s="135"/>
+      <c r="X65" s="135"/>
+      <c r="Y65" s="135"/>
+      <c r="Z65" s="135"/>
+      <c r="AA65" s="135"/>
+      <c r="AB65" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="AC65" s="86"/>
-      <c r="AD65" s="86"/>
-      <c r="AE65" s="86"/>
-      <c r="AF65" s="86"/>
-      <c r="AG65" s="86"/>
-      <c r="AH65" s="87" t="s">
+      <c r="AC65" s="136"/>
+      <c r="AD65" s="136"/>
+      <c r="AE65" s="136"/>
+      <c r="AF65" s="136"/>
+      <c r="AG65" s="136"/>
+      <c r="AH65" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="AI65" s="87"/>
-      <c r="AJ65" s="87"/>
-      <c r="AK65" s="87"/>
+      <c r="AI65" s="137"/>
+      <c r="AJ65" s="137"/>
+      <c r="AK65" s="137"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="77" t="s">
+      <c r="B66" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="77"/>
-      <c r="P66" s="78" t="s">
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="128"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78" t="s">
+      <c r="Q66" s="130"/>
+      <c r="R66" s="130"/>
+      <c r="S66" s="130"/>
+      <c r="T66" s="130"/>
+      <c r="U66" s="130"/>
+      <c r="V66" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="78"/>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="79" t="s">
+      <c r="W66" s="130"/>
+      <c r="X66" s="130"/>
+      <c r="Y66" s="130"/>
+      <c r="Z66" s="130"/>
+      <c r="AA66" s="130"/>
+      <c r="AB66" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="AC66" s="79"/>
-      <c r="AD66" s="79"/>
-      <c r="AE66" s="79"/>
-      <c r="AF66" s="79"/>
-      <c r="AG66" s="79"/>
-      <c r="AH66" s="80">
+      <c r="AC66" s="131"/>
+      <c r="AD66" s="131"/>
+      <c r="AE66" s="131"/>
+      <c r="AF66" s="131"/>
+      <c r="AG66" s="131"/>
+      <c r="AH66" s="132">
         <v>1</v>
       </c>
-      <c r="AI66" s="80"/>
-      <c r="AJ66" s="80"/>
-      <c r="AK66" s="80"/>
+      <c r="AI66" s="132"/>
+      <c r="AJ66" s="132"/>
+      <c r="AK66" s="132"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="76">
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="119"/>
+      <c r="N67" s="119"/>
+      <c r="O67" s="119"/>
+      <c r="P67" s="147">
         <v>0</v>
       </c>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="76"/>
-      <c r="S67" s="76"/>
-      <c r="T67" s="76"/>
-      <c r="U67" s="76"/>
-      <c r="V67" s="76">
+      <c r="Q67" s="147"/>
+      <c r="R67" s="147"/>
+      <c r="S67" s="147"/>
+      <c r="T67" s="147"/>
+      <c r="U67" s="147"/>
+      <c r="V67" s="147">
         <v>0</v>
       </c>
-      <c r="W67" s="76"/>
-      <c r="X67" s="76"/>
-      <c r="Y67" s="76"/>
-      <c r="Z67" s="76"/>
-      <c r="AA67" s="76"/>
-      <c r="AB67" s="76">
+      <c r="W67" s="147"/>
+      <c r="X67" s="147"/>
+      <c r="Y67" s="147"/>
+      <c r="Z67" s="147"/>
+      <c r="AA67" s="147"/>
+      <c r="AB67" s="147">
         <v>0</v>
       </c>
-      <c r="AC67" s="76"/>
-      <c r="AD67" s="76"/>
-      <c r="AE67" s="76"/>
-      <c r="AF67" s="76"/>
-      <c r="AG67" s="76"/>
-      <c r="AH67" s="58" t="s">
+      <c r="AC67" s="147"/>
+      <c r="AD67" s="147"/>
+      <c r="AE67" s="147"/>
+      <c r="AF67" s="147"/>
+      <c r="AG67" s="147"/>
+      <c r="AH67" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="AI67" s="58"/>
-      <c r="AJ67" s="58"/>
-      <c r="AK67" s="58"/>
+      <c r="AI67" s="119"/>
+      <c r="AJ67" s="119"/>
+      <c r="AK67" s="119"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -4884,366 +4887,366 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
-      <c r="AC69" s="59"/>
-      <c r="AD69" s="59"/>
-      <c r="AE69" s="59"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="59"/>
-      <c r="AH69" s="59"/>
-      <c r="AI69" s="59"/>
-      <c r="AJ69" s="59"/>
-      <c r="AK69" s="59"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="123"/>
+      <c r="K69" s="123"/>
+      <c r="L69" s="123"/>
+      <c r="M69" s="123"/>
+      <c r="N69" s="123"/>
+      <c r="O69" s="123"/>
+      <c r="P69" s="123"/>
+      <c r="Q69" s="123"/>
+      <c r="R69" s="123"/>
+      <c r="S69" s="123"/>
+      <c r="T69" s="123"/>
+      <c r="U69" s="123"/>
+      <c r="V69" s="123"/>
+      <c r="W69" s="123"/>
+      <c r="X69" s="123"/>
+      <c r="Y69" s="123"/>
+      <c r="Z69" s="123"/>
+      <c r="AA69" s="123"/>
+      <c r="AB69" s="123"/>
+      <c r="AC69" s="123"/>
+      <c r="AD69" s="123"/>
+      <c r="AE69" s="123"/>
+      <c r="AF69" s="123"/>
+      <c r="AG69" s="123"/>
+      <c r="AH69" s="123"/>
+      <c r="AI69" s="123"/>
+      <c r="AJ69" s="123"/>
+      <c r="AK69" s="123"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
-      <c r="U70" s="68"/>
-      <c r="V70" s="68"/>
-      <c r="W70" s="68"/>
-      <c r="X70" s="68"/>
-      <c r="Y70" s="68"/>
-      <c r="Z70" s="68"/>
-      <c r="AA70" s="68"/>
-      <c r="AB70" s="68"/>
-      <c r="AC70" s="68"/>
-      <c r="AD70" s="68"/>
-      <c r="AE70" s="68"/>
-      <c r="AF70" s="68"/>
-      <c r="AG70" s="68"/>
-      <c r="AH70" s="68"/>
-      <c r="AI70" s="68"/>
-      <c r="AJ70" s="68"/>
-      <c r="AK70" s="69"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="139"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="139"/>
+      <c r="U70" s="139"/>
+      <c r="V70" s="139"/>
+      <c r="W70" s="139"/>
+      <c r="X70" s="139"/>
+      <c r="Y70" s="139"/>
+      <c r="Z70" s="139"/>
+      <c r="AA70" s="139"/>
+      <c r="AB70" s="139"/>
+      <c r="AC70" s="139"/>
+      <c r="AD70" s="139"/>
+      <c r="AE70" s="139"/>
+      <c r="AF70" s="139"/>
+      <c r="AG70" s="139"/>
+      <c r="AH70" s="139"/>
+      <c r="AI70" s="139"/>
+      <c r="AJ70" s="139"/>
+      <c r="AK70" s="140"/>
       <c r="AL70" s="32"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
-      <c r="Q71" s="71"/>
-      <c r="R71" s="71"/>
-      <c r="S71" s="71"/>
-      <c r="T71" s="71"/>
-      <c r="U71" s="71"/>
-      <c r="V71" s="71"/>
-      <c r="W71" s="71"/>
-      <c r="X71" s="71"/>
-      <c r="Y71" s="71"/>
-      <c r="Z71" s="71"/>
-      <c r="AA71" s="71"/>
-      <c r="AB71" s="71"/>
-      <c r="AC71" s="71"/>
-      <c r="AD71" s="71"/>
-      <c r="AE71" s="71"/>
-      <c r="AF71" s="71"/>
-      <c r="AG71" s="71"/>
-      <c r="AH71" s="71"/>
-      <c r="AI71" s="71"/>
-      <c r="AJ71" s="71"/>
-      <c r="AK71" s="72"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="142"/>
+      <c r="K71" s="142"/>
+      <c r="L71" s="142"/>
+      <c r="M71" s="142"/>
+      <c r="N71" s="142"/>
+      <c r="O71" s="142"/>
+      <c r="P71" s="142"/>
+      <c r="Q71" s="142"/>
+      <c r="R71" s="142"/>
+      <c r="S71" s="142"/>
+      <c r="T71" s="142"/>
+      <c r="U71" s="142"/>
+      <c r="V71" s="142"/>
+      <c r="W71" s="142"/>
+      <c r="X71" s="142"/>
+      <c r="Y71" s="142"/>
+      <c r="Z71" s="142"/>
+      <c r="AA71" s="142"/>
+      <c r="AB71" s="142"/>
+      <c r="AC71" s="142"/>
+      <c r="AD71" s="142"/>
+      <c r="AE71" s="142"/>
+      <c r="AF71" s="142"/>
+      <c r="AG71" s="142"/>
+      <c r="AH71" s="142"/>
+      <c r="AI71" s="142"/>
+      <c r="AJ71" s="142"/>
+      <c r="AK71" s="143"/>
       <c r="AL71" s="32"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="71"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="71"/>
-      <c r="V72" s="71"/>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="71"/>
-      <c r="AC72" s="71"/>
-      <c r="AD72" s="71"/>
-      <c r="AE72" s="71"/>
-      <c r="AF72" s="71"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="71"/>
-      <c r="AI72" s="71"/>
-      <c r="AJ72" s="71"/>
-      <c r="AK72" s="72"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="142"/>
+      <c r="K72" s="142"/>
+      <c r="L72" s="142"/>
+      <c r="M72" s="142"/>
+      <c r="N72" s="142"/>
+      <c r="O72" s="142"/>
+      <c r="P72" s="142"/>
+      <c r="Q72" s="142"/>
+      <c r="R72" s="142"/>
+      <c r="S72" s="142"/>
+      <c r="T72" s="142"/>
+      <c r="U72" s="142"/>
+      <c r="V72" s="142"/>
+      <c r="W72" s="142"/>
+      <c r="X72" s="142"/>
+      <c r="Y72" s="142"/>
+      <c r="Z72" s="142"/>
+      <c r="AA72" s="142"/>
+      <c r="AB72" s="142"/>
+      <c r="AC72" s="142"/>
+      <c r="AD72" s="142"/>
+      <c r="AE72" s="142"/>
+      <c r="AF72" s="142"/>
+      <c r="AG72" s="142"/>
+      <c r="AH72" s="142"/>
+      <c r="AI72" s="142"/>
+      <c r="AJ72" s="142"/>
+      <c r="AK72" s="143"/>
       <c r="AL72" s="32"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
-      <c r="Q73" s="71"/>
-      <c r="R73" s="71"/>
-      <c r="S73" s="71"/>
-      <c r="T73" s="71"/>
-      <c r="U73" s="71"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="71"/>
-      <c r="X73" s="71"/>
-      <c r="Y73" s="71"/>
-      <c r="Z73" s="71"/>
-      <c r="AA73" s="71"/>
-      <c r="AB73" s="71"/>
-      <c r="AC73" s="71"/>
-      <c r="AD73" s="71"/>
-      <c r="AE73" s="71"/>
-      <c r="AF73" s="71"/>
-      <c r="AG73" s="71"/>
-      <c r="AH73" s="71"/>
-      <c r="AI73" s="71"/>
-      <c r="AJ73" s="71"/>
-      <c r="AK73" s="72"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="142"/>
+      <c r="K73" s="142"/>
+      <c r="L73" s="142"/>
+      <c r="M73" s="142"/>
+      <c r="N73" s="142"/>
+      <c r="O73" s="142"/>
+      <c r="P73" s="142"/>
+      <c r="Q73" s="142"/>
+      <c r="R73" s="142"/>
+      <c r="S73" s="142"/>
+      <c r="T73" s="142"/>
+      <c r="U73" s="142"/>
+      <c r="V73" s="142"/>
+      <c r="W73" s="142"/>
+      <c r="X73" s="142"/>
+      <c r="Y73" s="142"/>
+      <c r="Z73" s="142"/>
+      <c r="AA73" s="142"/>
+      <c r="AB73" s="142"/>
+      <c r="AC73" s="142"/>
+      <c r="AD73" s="142"/>
+      <c r="AE73" s="142"/>
+      <c r="AF73" s="142"/>
+      <c r="AG73" s="142"/>
+      <c r="AH73" s="142"/>
+      <c r="AI73" s="142"/>
+      <c r="AJ73" s="142"/>
+      <c r="AK73" s="143"/>
       <c r="AL73" s="33"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
-      <c r="Q74" s="71"/>
-      <c r="R74" s="71"/>
-      <c r="S74" s="71"/>
-      <c r="T74" s="71"/>
-      <c r="U74" s="71"/>
-      <c r="V74" s="71"/>
-      <c r="W74" s="71"/>
-      <c r="X74" s="71"/>
-      <c r="Y74" s="71"/>
-      <c r="Z74" s="71"/>
-      <c r="AA74" s="71"/>
-      <c r="AB74" s="71"/>
-      <c r="AC74" s="71"/>
-      <c r="AD74" s="71"/>
-      <c r="AE74" s="71"/>
-      <c r="AF74" s="71"/>
-      <c r="AG74" s="71"/>
-      <c r="AH74" s="71"/>
-      <c r="AI74" s="71"/>
-      <c r="AJ74" s="71"/>
-      <c r="AK74" s="72"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="142"/>
+      <c r="K74" s="142"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="142"/>
+      <c r="N74" s="142"/>
+      <c r="O74" s="142"/>
+      <c r="P74" s="142"/>
+      <c r="Q74" s="142"/>
+      <c r="R74" s="142"/>
+      <c r="S74" s="142"/>
+      <c r="T74" s="142"/>
+      <c r="U74" s="142"/>
+      <c r="V74" s="142"/>
+      <c r="W74" s="142"/>
+      <c r="X74" s="142"/>
+      <c r="Y74" s="142"/>
+      <c r="Z74" s="142"/>
+      <c r="AA74" s="142"/>
+      <c r="AB74" s="142"/>
+      <c r="AC74" s="142"/>
+      <c r="AD74" s="142"/>
+      <c r="AE74" s="142"/>
+      <c r="AF74" s="142"/>
+      <c r="AG74" s="142"/>
+      <c r="AH74" s="142"/>
+      <c r="AI74" s="142"/>
+      <c r="AJ74" s="142"/>
+      <c r="AK74" s="143"/>
       <c r="AL74" s="33"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
-      <c r="P75" s="71"/>
-      <c r="Q75" s="71"/>
-      <c r="R75" s="71"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
-      <c r="V75" s="71"/>
-      <c r="W75" s="71"/>
-      <c r="X75" s="71"/>
-      <c r="Y75" s="71"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="71"/>
-      <c r="AB75" s="71"/>
-      <c r="AC75" s="71"/>
-      <c r="AD75" s="71"/>
-      <c r="AE75" s="71"/>
-      <c r="AF75" s="71"/>
-      <c r="AG75" s="71"/>
-      <c r="AH75" s="71"/>
-      <c r="AI75" s="71"/>
-      <c r="AJ75" s="71"/>
-      <c r="AK75" s="72"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="142"/>
+      <c r="K75" s="142"/>
+      <c r="L75" s="142"/>
+      <c r="M75" s="142"/>
+      <c r="N75" s="142"/>
+      <c r="O75" s="142"/>
+      <c r="P75" s="142"/>
+      <c r="Q75" s="142"/>
+      <c r="R75" s="142"/>
+      <c r="S75" s="142"/>
+      <c r="T75" s="142"/>
+      <c r="U75" s="142"/>
+      <c r="V75" s="142"/>
+      <c r="W75" s="142"/>
+      <c r="X75" s="142"/>
+      <c r="Y75" s="142"/>
+      <c r="Z75" s="142"/>
+      <c r="AA75" s="142"/>
+      <c r="AB75" s="142"/>
+      <c r="AC75" s="142"/>
+      <c r="AD75" s="142"/>
+      <c r="AE75" s="142"/>
+      <c r="AF75" s="142"/>
+      <c r="AG75" s="142"/>
+      <c r="AH75" s="142"/>
+      <c r="AI75" s="142"/>
+      <c r="AJ75" s="142"/>
+      <c r="AK75" s="143"/>
       <c r="AL75" s="33"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="71"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71"/>
-      <c r="O76" s="71"/>
-      <c r="P76" s="71"/>
-      <c r="Q76" s="71"/>
-      <c r="R76" s="71"/>
-      <c r="S76" s="71"/>
-      <c r="T76" s="71"/>
-      <c r="U76" s="71"/>
-      <c r="V76" s="71"/>
-      <c r="W76" s="71"/>
-      <c r="X76" s="71"/>
-      <c r="Y76" s="71"/>
-      <c r="Z76" s="71"/>
-      <c r="AA76" s="71"/>
-      <c r="AB76" s="71"/>
-      <c r="AC76" s="71"/>
-      <c r="AD76" s="71"/>
-      <c r="AE76" s="71"/>
-      <c r="AF76" s="71"/>
-      <c r="AG76" s="71"/>
-      <c r="AH76" s="71"/>
-      <c r="AI76" s="71"/>
-      <c r="AJ76" s="71"/>
-      <c r="AK76" s="72"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="142"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="142"/>
+      <c r="M76" s="142"/>
+      <c r="N76" s="142"/>
+      <c r="O76" s="142"/>
+      <c r="P76" s="142"/>
+      <c r="Q76" s="142"/>
+      <c r="R76" s="142"/>
+      <c r="S76" s="142"/>
+      <c r="T76" s="142"/>
+      <c r="U76" s="142"/>
+      <c r="V76" s="142"/>
+      <c r="W76" s="142"/>
+      <c r="X76" s="142"/>
+      <c r="Y76" s="142"/>
+      <c r="Z76" s="142"/>
+      <c r="AA76" s="142"/>
+      <c r="AB76" s="142"/>
+      <c r="AC76" s="142"/>
+      <c r="AD76" s="142"/>
+      <c r="AE76" s="142"/>
+      <c r="AF76" s="142"/>
+      <c r="AG76" s="142"/>
+      <c r="AH76" s="142"/>
+      <c r="AI76" s="142"/>
+      <c r="AJ76" s="142"/>
+      <c r="AK76" s="143"/>
       <c r="AL76" s="33"/>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
-      <c r="B77" s="73"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
-      <c r="P77" s="74"/>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="74"/>
-      <c r="S77" s="74"/>
-      <c r="T77" s="74"/>
-      <c r="U77" s="74"/>
-      <c r="V77" s="74"/>
-      <c r="W77" s="74"/>
-      <c r="X77" s="74"/>
-      <c r="Y77" s="74"/>
-      <c r="Z77" s="74"/>
-      <c r="AA77" s="74"/>
-      <c r="AB77" s="74"/>
-      <c r="AC77" s="74"/>
-      <c r="AD77" s="74"/>
-      <c r="AE77" s="74"/>
-      <c r="AF77" s="74"/>
-      <c r="AG77" s="74"/>
-      <c r="AH77" s="74"/>
-      <c r="AI77" s="74"/>
-      <c r="AJ77" s="74"/>
-      <c r="AK77" s="75"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
+      <c r="F77" s="145"/>
+      <c r="G77" s="145"/>
+      <c r="H77" s="145"/>
+      <c r="I77" s="145"/>
+      <c r="J77" s="145"/>
+      <c r="K77" s="145"/>
+      <c r="L77" s="145"/>
+      <c r="M77" s="145"/>
+      <c r="N77" s="145"/>
+      <c r="O77" s="145"/>
+      <c r="P77" s="145"/>
+      <c r="Q77" s="145"/>
+      <c r="R77" s="145"/>
+      <c r="S77" s="145"/>
+      <c r="T77" s="145"/>
+      <c r="U77" s="145"/>
+      <c r="V77" s="145"/>
+      <c r="W77" s="145"/>
+      <c r="X77" s="145"/>
+      <c r="Y77" s="145"/>
+      <c r="Z77" s="145"/>
+      <c r="AA77" s="145"/>
+      <c r="AB77" s="145"/>
+      <c r="AC77" s="145"/>
+      <c r="AD77" s="145"/>
+      <c r="AE77" s="145"/>
+      <c r="AF77" s="145"/>
+      <c r="AG77" s="145"/>
+      <c r="AH77" s="145"/>
+      <c r="AI77" s="145"/>
+      <c r="AJ77" s="145"/>
+      <c r="AK77" s="146"/>
       <c r="AL77" s="33"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
@@ -5288,86 +5291,86 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="59"/>
-      <c r="U79" s="59"/>
-      <c r="V79" s="59"/>
-      <c r="W79" s="59"/>
-      <c r="X79" s="59"/>
-      <c r="Y79" s="59"/>
-      <c r="Z79" s="59"/>
-      <c r="AA79" s="59"/>
-      <c r="AB79" s="59"/>
-      <c r="AC79" s="59"/>
-      <c r="AD79" s="59"/>
-      <c r="AE79" s="59"/>
-      <c r="AF79" s="59"/>
-      <c r="AG79" s="59"/>
-      <c r="AH79" s="59"/>
-      <c r="AI79" s="59"/>
-      <c r="AJ79" s="59"/>
-      <c r="AK79" s="59"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="123"/>
+      <c r="G79" s="123"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="123"/>
+      <c r="J79" s="123"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="123"/>
+      <c r="M79" s="123"/>
+      <c r="N79" s="123"/>
+      <c r="O79" s="123"/>
+      <c r="P79" s="123"/>
+      <c r="Q79" s="123"/>
+      <c r="R79" s="123"/>
+      <c r="S79" s="123"/>
+      <c r="T79" s="123"/>
+      <c r="U79" s="123"/>
+      <c r="V79" s="123"/>
+      <c r="W79" s="123"/>
+      <c r="X79" s="123"/>
+      <c r="Y79" s="123"/>
+      <c r="Z79" s="123"/>
+      <c r="AA79" s="123"/>
+      <c r="AB79" s="123"/>
+      <c r="AC79" s="123"/>
+      <c r="AD79" s="123"/>
+      <c r="AE79" s="123"/>
+      <c r="AF79" s="123"/>
+      <c r="AG79" s="123"/>
+      <c r="AH79" s="123"/>
+      <c r="AI79" s="123"/>
+      <c r="AJ79" s="123"/>
+      <c r="AK79" s="123"/>
       <c r="AL79" s="33"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="54"/>
-      <c r="V80" s="54"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="54"/>
-      <c r="Y80" s="54"/>
-      <c r="Z80" s="54"/>
-      <c r="AA80" s="54"/>
-      <c r="AB80" s="54"/>
-      <c r="AC80" s="54"/>
-      <c r="AD80" s="54"/>
-      <c r="AE80" s="54"/>
-      <c r="AF80" s="54"/>
-      <c r="AG80" s="54"/>
-      <c r="AH80" s="54"/>
-      <c r="AI80" s="54"/>
-      <c r="AJ80" s="54"/>
-      <c r="AK80" s="54"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+      <c r="P80" s="83"/>
+      <c r="Q80" s="83"/>
+      <c r="R80" s="83"/>
+      <c r="S80" s="83"/>
+      <c r="T80" s="83"/>
+      <c r="U80" s="83"/>
+      <c r="V80" s="83"/>
+      <c r="W80" s="83"/>
+      <c r="X80" s="83"/>
+      <c r="Y80" s="83"/>
+      <c r="Z80" s="83"/>
+      <c r="AA80" s="83"/>
+      <c r="AB80" s="83"/>
+      <c r="AC80" s="83"/>
+      <c r="AD80" s="83"/>
+      <c r="AE80" s="83"/>
+      <c r="AF80" s="83"/>
+      <c r="AG80" s="83"/>
+      <c r="AH80" s="83"/>
+      <c r="AI80" s="83"/>
+      <c r="AJ80" s="83"/>
+      <c r="AK80" s="83"/>
       <c r="AL80" s="32"/>
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.2">
@@ -5412,84 +5415,84 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="59"/>
-      <c r="U82" s="59"/>
-      <c r="V82" s="59"/>
-      <c r="W82" s="59"/>
-      <c r="X82" s="59"/>
-      <c r="Y82" s="59"/>
-      <c r="Z82" s="59"/>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="59"/>
-      <c r="AC82" s="59"/>
-      <c r="AD82" s="59"/>
-      <c r="AE82" s="59"/>
-      <c r="AF82" s="59"/>
-      <c r="AG82" s="59"/>
-      <c r="AH82" s="59"/>
-      <c r="AI82" s="59"/>
-      <c r="AJ82" s="59"/>
-      <c r="AK82" s="59"/>
+      <c r="C82" s="123"/>
+      <c r="D82" s="123"/>
+      <c r="E82" s="123"/>
+      <c r="F82" s="123"/>
+      <c r="G82" s="123"/>
+      <c r="H82" s="123"/>
+      <c r="I82" s="123"/>
+      <c r="J82" s="123"/>
+      <c r="K82" s="123"/>
+      <c r="L82" s="123"/>
+      <c r="M82" s="123"/>
+      <c r="N82" s="123"/>
+      <c r="O82" s="123"/>
+      <c r="P82" s="123"/>
+      <c r="Q82" s="123"/>
+      <c r="R82" s="123"/>
+      <c r="S82" s="123"/>
+      <c r="T82" s="123"/>
+      <c r="U82" s="123"/>
+      <c r="V82" s="123"/>
+      <c r="W82" s="123"/>
+      <c r="X82" s="123"/>
+      <c r="Y82" s="123"/>
+      <c r="Z82" s="123"/>
+      <c r="AA82" s="123"/>
+      <c r="AB82" s="123"/>
+      <c r="AC82" s="123"/>
+      <c r="AD82" s="123"/>
+      <c r="AE82" s="123"/>
+      <c r="AF82" s="123"/>
+      <c r="AG82" s="123"/>
+      <c r="AH82" s="123"/>
+      <c r="AI82" s="123"/>
+      <c r="AJ82" s="123"/>
+      <c r="AK82" s="123"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
-      <c r="V83" s="54"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="54"/>
-      <c r="Y83" s="54"/>
-      <c r="Z83" s="54"/>
-      <c r="AA83" s="54"/>
-      <c r="AB83" s="54"/>
-      <c r="AC83" s="54"/>
-      <c r="AD83" s="54"/>
-      <c r="AE83" s="54"/>
-      <c r="AF83" s="54"/>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="54"/>
-      <c r="AI83" s="54"/>
-      <c r="AJ83" s="54"/>
-      <c r="AK83" s="54"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="I83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="K83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="M83" s="83"/>
+      <c r="N83" s="83"/>
+      <c r="O83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="Q83" s="83"/>
+      <c r="R83" s="83"/>
+      <c r="S83" s="83"/>
+      <c r="T83" s="83"/>
+      <c r="U83" s="83"/>
+      <c r="V83" s="83"/>
+      <c r="W83" s="83"/>
+      <c r="X83" s="83"/>
+      <c r="Y83" s="83"/>
+      <c r="Z83" s="83"/>
+      <c r="AA83" s="83"/>
+      <c r="AB83" s="83"/>
+      <c r="AC83" s="83"/>
+      <c r="AD83" s="83"/>
+      <c r="AE83" s="83"/>
+      <c r="AF83" s="83"/>
+      <c r="AG83" s="83"/>
+      <c r="AH83" s="83"/>
+      <c r="AI83" s="83"/>
+      <c r="AJ83" s="83"/>
+      <c r="AK83" s="83"/>
       <c r="AL83" s="32"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -5534,44 +5537,44 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="59"/>
-      <c r="U85" s="59"/>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-      <c r="AA85" s="59"/>
-      <c r="AB85" s="59"/>
-      <c r="AC85" s="59"/>
-      <c r="AD85" s="59"/>
-      <c r="AE85" s="59"/>
-      <c r="AF85" s="59"/>
-      <c r="AG85" s="59"/>
-      <c r="AH85" s="59"/>
-      <c r="AI85" s="59"/>
-      <c r="AJ85" s="59"/>
-      <c r="AK85" s="59"/>
+      <c r="C85" s="123"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="123"/>
+      <c r="F85" s="123"/>
+      <c r="G85" s="123"/>
+      <c r="H85" s="123"/>
+      <c r="I85" s="123"/>
+      <c r="J85" s="123"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="123"/>
+      <c r="M85" s="123"/>
+      <c r="N85" s="123"/>
+      <c r="O85" s="123"/>
+      <c r="P85" s="123"/>
+      <c r="Q85" s="123"/>
+      <c r="R85" s="123"/>
+      <c r="S85" s="123"/>
+      <c r="T85" s="123"/>
+      <c r="U85" s="123"/>
+      <c r="V85" s="123"/>
+      <c r="W85" s="123"/>
+      <c r="X85" s="123"/>
+      <c r="Y85" s="123"/>
+      <c r="Z85" s="123"/>
+      <c r="AA85" s="123"/>
+      <c r="AB85" s="123"/>
+      <c r="AC85" s="123"/>
+      <c r="AD85" s="123"/>
+      <c r="AE85" s="123"/>
+      <c r="AF85" s="123"/>
+      <c r="AG85" s="123"/>
+      <c r="AH85" s="123"/>
+      <c r="AI85" s="123"/>
+      <c r="AJ85" s="123"/>
+      <c r="AK85" s="123"/>
       <c r="AL85" s="33"/>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
@@ -5657,29 +5660,29 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="48"/>
-      <c r="C88" s="65" t="s">
+      <c r="C88" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="65" t="s">
+      <c r="I88" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
+      <c r="J88" s="76"/>
+      <c r="K88" s="76"/>
+      <c r="L88" s="76"/>
+      <c r="M88" s="76"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="65" t="s">
+      <c r="O88" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="65"/>
-      <c r="S88" s="65"/>
+      <c r="P88" s="76"/>
+      <c r="Q88" s="76"/>
+      <c r="R88" s="76"/>
+      <c r="S88" s="76"/>
       <c r="T88" s="38"/>
       <c r="U88" s="5"/>
       <c r="V88" s="38" t="s">
@@ -5691,13 +5694,13 @@
       <c r="Z88" s="38"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="5"/>
-      <c r="AC88" s="65" t="s">
+      <c r="AC88" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="AD88" s="65"/>
-      <c r="AE88" s="65"/>
-      <c r="AF88" s="65"/>
-      <c r="AG88" s="65"/>
+      <c r="AD88" s="76"/>
+      <c r="AE88" s="76"/>
+      <c r="AF88" s="76"/>
+      <c r="AG88" s="76"/>
       <c r="AH88" s="38"/>
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
@@ -5741,13 +5744,13 @@
       <c r="Z89" s="49"/>
       <c r="AA89" s="44"/>
       <c r="AB89" s="43"/>
-      <c r="AC89" s="66" t="s">
+      <c r="AC89" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-      <c r="AG89" s="66"/>
+      <c r="AD89" s="149"/>
+      <c r="AE89" s="149"/>
+      <c r="AF89" s="149"/>
+      <c r="AG89" s="149"/>
       <c r="AH89" s="44"/>
       <c r="AI89" s="43"/>
       <c r="AJ89" s="43"/>
@@ -5836,86 +5839,86 @@
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="59"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="59"/>
-      <c r="V92" s="59"/>
-      <c r="W92" s="59"/>
-      <c r="X92" s="59"/>
-      <c r="Y92" s="59"/>
-      <c r="Z92" s="59"/>
-      <c r="AA92" s="59"/>
-      <c r="AB92" s="59"/>
-      <c r="AC92" s="59"/>
-      <c r="AD92" s="59"/>
-      <c r="AE92" s="59"/>
-      <c r="AF92" s="59"/>
-      <c r="AG92" s="59"/>
-      <c r="AH92" s="59"/>
-      <c r="AI92" s="59"/>
-      <c r="AJ92" s="59"/>
-      <c r="AK92" s="59"/>
+      <c r="C92" s="123"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="123"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="123"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="123"/>
+      <c r="M92" s="123"/>
+      <c r="N92" s="123"/>
+      <c r="O92" s="123"/>
+      <c r="P92" s="123"/>
+      <c r="Q92" s="123"/>
+      <c r="R92" s="123"/>
+      <c r="S92" s="123"/>
+      <c r="T92" s="123"/>
+      <c r="U92" s="123"/>
+      <c r="V92" s="123"/>
+      <c r="W92" s="123"/>
+      <c r="X92" s="123"/>
+      <c r="Y92" s="123"/>
+      <c r="Z92" s="123"/>
+      <c r="AA92" s="123"/>
+      <c r="AB92" s="123"/>
+      <c r="AC92" s="123"/>
+      <c r="AD92" s="123"/>
+      <c r="AE92" s="123"/>
+      <c r="AF92" s="123"/>
+      <c r="AG92" s="123"/>
+      <c r="AH92" s="123"/>
+      <c r="AI92" s="123"/>
+      <c r="AJ92" s="123"/>
+      <c r="AK92" s="123"/>
       <c r="AL92" s="33"/>
     </row>
     <row r="93" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="60" t="s">
+      <c r="B93" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
-      <c r="S93" s="60"/>
-      <c r="T93" s="60"/>
-      <c r="U93" s="60"/>
-      <c r="V93" s="60"/>
-      <c r="W93" s="60"/>
-      <c r="X93" s="60"/>
-      <c r="Y93" s="60"/>
-      <c r="Z93" s="60"/>
-      <c r="AA93" s="60"/>
-      <c r="AB93" s="60"/>
-      <c r="AC93" s="60"/>
-      <c r="AD93" s="60"/>
-      <c r="AE93" s="60"/>
-      <c r="AF93" s="60"/>
-      <c r="AG93" s="60"/>
-      <c r="AH93" s="60"/>
-      <c r="AI93" s="60"/>
-      <c r="AJ93" s="60"/>
-      <c r="AK93" s="60"/>
+      <c r="C93" s="148"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="148"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="148"/>
+      <c r="H93" s="148"/>
+      <c r="I93" s="148"/>
+      <c r="J93" s="148"/>
+      <c r="K93" s="148"/>
+      <c r="L93" s="148"/>
+      <c r="M93" s="148"/>
+      <c r="N93" s="148"/>
+      <c r="O93" s="148"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="148"/>
+      <c r="R93" s="148"/>
+      <c r="S93" s="148"/>
+      <c r="T93" s="148"/>
+      <c r="U93" s="148"/>
+      <c r="V93" s="148"/>
+      <c r="W93" s="148"/>
+      <c r="X93" s="148"/>
+      <c r="Y93" s="148"/>
+      <c r="Z93" s="148"/>
+      <c r="AA93" s="148"/>
+      <c r="AB93" s="148"/>
+      <c r="AC93" s="148"/>
+      <c r="AD93" s="148"/>
+      <c r="AE93" s="148"/>
+      <c r="AF93" s="148"/>
+      <c r="AG93" s="148"/>
+      <c r="AH93" s="148"/>
+      <c r="AI93" s="148"/>
+      <c r="AJ93" s="148"/>
+      <c r="AK93" s="148"/>
       <c r="AL93" s="32"/>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.2">
@@ -7644,103 +7647,98 @@
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE31"/>
-    <mergeCell ref="AF27:AK31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y31"/>
+    <mergeCell ref="B85:AK85"/>
+    <mergeCell ref="B92:AK92"/>
+    <mergeCell ref="B93:AK93"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="I88:M88"/>
+    <mergeCell ref="O88:S88"/>
+    <mergeCell ref="AC88:AG88"/>
+    <mergeCell ref="AC89:AG89"/>
+    <mergeCell ref="B79:AK79"/>
+    <mergeCell ref="B80:AK80"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="B70:AK77"/>
+    <mergeCell ref="B67:O67"/>
+    <mergeCell ref="P67:U67"/>
+    <mergeCell ref="V67:AA67"/>
+    <mergeCell ref="AB67:AG67"/>
+    <mergeCell ref="AH67:AK67"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B66:O66"/>
+    <mergeCell ref="P66:U66"/>
+    <mergeCell ref="V66:AA66"/>
+    <mergeCell ref="AB66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:U65"/>
+    <mergeCell ref="V65:AA65"/>
+    <mergeCell ref="AB65:AG65"/>
+    <mergeCell ref="AH65:AK65"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:AK62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="J63:L64"/>
+    <mergeCell ref="M63:O64"/>
+    <mergeCell ref="P63:AG63"/>
+    <mergeCell ref="AH63:AK64"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="P64:U64"/>
+    <mergeCell ref="V64:AA64"/>
+    <mergeCell ref="AB64:AG64"/>
+    <mergeCell ref="B53:Z53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="AF53:AK53"/>
+    <mergeCell ref="D55:AK55"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:O60"/>
+    <mergeCell ref="Q60:W60"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="B50:Z50"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="AF50:AK50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="I51:Z51"/>
+    <mergeCell ref="AA51:AE51"/>
+    <mergeCell ref="AF51:AK51"/>
+    <mergeCell ref="B52:Z52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AF52:AK52"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="I47:Z47"/>
+    <mergeCell ref="AA47:AE47"/>
+    <mergeCell ref="AF47:AK47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="I48:Z48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="B49:Z49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AK49"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:Y40"/>
+    <mergeCell ref="Z40:AE40"/>
+    <mergeCell ref="AF40:AK40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R41:Y41"/>
+    <mergeCell ref="Z41:AE45"/>
+    <mergeCell ref="AF41:AK45"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:Y45"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H33:J33"/>
@@ -7757,98 +7755,103 @@
     <mergeCell ref="AF34:AK38"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="F35:Y38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="R40:Y40"/>
-    <mergeCell ref="Z40:AE40"/>
-    <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="R41:Y41"/>
-    <mergeCell ref="Z41:AE45"/>
-    <mergeCell ref="AF41:AK45"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:Y45"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="I47:Z47"/>
-    <mergeCell ref="AA47:AE47"/>
-    <mergeCell ref="AF47:AK47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="I48:Z48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="B49:Z49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AK49"/>
-    <mergeCell ref="B50:Z50"/>
-    <mergeCell ref="AA50:AE50"/>
-    <mergeCell ref="AF50:AK50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="I51:Z51"/>
-    <mergeCell ref="AA51:AE51"/>
-    <mergeCell ref="AF51:AK51"/>
-    <mergeCell ref="B52:Z52"/>
-    <mergeCell ref="AB52:AE52"/>
-    <mergeCell ref="AF52:AK52"/>
-    <mergeCell ref="B53:Z53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="AF53:AK53"/>
-    <mergeCell ref="D55:AK55"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:O60"/>
-    <mergeCell ref="Q60:W60"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:AK62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="J63:L64"/>
-    <mergeCell ref="M63:O64"/>
-    <mergeCell ref="P63:AG63"/>
-    <mergeCell ref="AH63:AK64"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="P64:U64"/>
-    <mergeCell ref="V64:AA64"/>
-    <mergeCell ref="AB64:AG64"/>
-    <mergeCell ref="B66:O66"/>
-    <mergeCell ref="P66:U66"/>
-    <mergeCell ref="V66:AA66"/>
-    <mergeCell ref="AB66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J65:L65"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="P65:U65"/>
-    <mergeCell ref="V65:AA65"/>
-    <mergeCell ref="AB65:AG65"/>
-    <mergeCell ref="AH65:AK65"/>
-    <mergeCell ref="B79:AK79"/>
-    <mergeCell ref="B80:AK80"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="B70:AK77"/>
-    <mergeCell ref="B67:O67"/>
-    <mergeCell ref="P67:U67"/>
-    <mergeCell ref="V67:AA67"/>
-    <mergeCell ref="AB67:AG67"/>
-    <mergeCell ref="AH67:AK67"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B85:AK85"/>
-    <mergeCell ref="B92:AK92"/>
-    <mergeCell ref="B93:AK93"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="I88:M88"/>
-    <mergeCell ref="O88:S88"/>
-    <mergeCell ref="AC88:AG88"/>
-    <mergeCell ref="AC89:AG89"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE31"/>
+    <mergeCell ref="AF27:AK31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y31"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido.xlsx
+++ b/public/plantilla_pedido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC844E-D029-4FDE-9C2C-65E09AD0A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FA526D-67CE-4A52-BC30-A1708F3CA533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,36 +1279,321 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,18 +1603,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,279 +1611,6 @@
     </xf>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1704,14 +1704,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>119520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>154627</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>98961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,14 +1724,15 @@
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="-1" t="4742" r="3342" b="13037"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="691200" y="447840"/>
-          <a:ext cx="1227600" cy="925200"/>
+          <a:off x="657621" y="488620"/>
+          <a:ext cx="1111308" cy="766948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="AS84" sqref="AS84"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2132,20 +2133,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2167,32 +2168,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="75" t="s">
+      <c r="AG2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2211,15 +2212,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="164" t="s">
+      <c r="AE3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2254,16 +2255,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="165" t="s">
+      <c r="AD4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="165"/>
-      <c r="AF4" s="165"/>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2298,16 +2299,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="166" t="s">
+      <c r="AD5" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2340,18 +2341,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="167" t="s">
+      <c r="AD6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="167"/>
-      <c r="AF6" s="167"/>
-      <c r="AG6" s="167"/>
-      <c r="AH6" s="168" t="s">
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="168"/>
-      <c r="AK6" s="168"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2428,178 +2429,178 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="169" t="s">
+      <c r="AH8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="169"/>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="169"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="61" t="s">
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="149" t="s">
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="148" t="s">
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="158" t="s">
+      <c r="AD9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="158"/>
-      <c r="AF9" s="158"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="66" t="s">
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="62" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="159" t="s">
+      <c r="AD10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="159"/>
-      <c r="AH10" s="160" t="s">
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="AI10" s="160"/>
-      <c r="AJ10" s="160"/>
-      <c r="AK10" s="160"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="66" t="s">
+      <c r="AD11" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="161" t="s">
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AI11" s="161"/>
-      <c r="AJ11" s="161"/>
-      <c r="AK11" s="161"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="54" t="s">
         <v>20</v>
       </c>
@@ -2608,220 +2609,220 @@
         <v>82</v>
       </c>
       <c r="O12" s="53"/>
-      <c r="P12" s="152" t="s">
+      <c r="P12" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="153" t="s">
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="152" t="s">
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="W12" s="154"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="60" t="s">
+      <c r="W12" s="85"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="62"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="75"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="64" t="s">
+      <c r="AD12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="151" t="s">
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="62" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="63" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="95" t="s">
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="59" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="147" t="s">
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="147"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="148" t="s">
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="148"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2866,210 +2867,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="143" t="s">
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143" t="s">
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143" t="s">
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143" t="s">
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="143"/>
-      <c r="AJ18" s="143"/>
-      <c r="AK18" s="143"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="95">
+      <c r="B19" s="89">
         <v>1</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95" t="s">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96" t="s">
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96" t="s">
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96" t="s">
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="144" t="s">
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="144"/>
-      <c r="AJ19" s="144"/>
-      <c r="AK19" s="144"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="59">
+      <c r="B20" s="91">
         <v>2</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="145" t="s">
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145" t="s">
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145" t="s">
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="146" t="s">
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="146"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="146"/>
-      <c r="AK20" s="146"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="95">
+      <c r="B21" s="89">
         <v>3</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95" t="s">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96" t="s">
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96" t="s">
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96" t="s">
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="144" t="s">
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="144"/>
-      <c r="AK21" s="144"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3114,112 +3115,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142" t="s">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142" t="s">
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142" t="s">
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142" t="s">
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142" t="s">
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="142"/>
-      <c r="AA23" s="142"/>
-      <c r="AB23" s="142"/>
-      <c r="AC23" s="142"/>
-      <c r="AD23" s="142"/>
-      <c r="AE23" s="143" t="s">
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="AF23" s="143"/>
-      <c r="AG23" s="143"/>
-      <c r="AH23" s="143"/>
-      <c r="AI23" s="143"/>
-      <c r="AJ23" s="143"/>
-      <c r="AK23" s="143"/>
+      <c r="AF23" s="93"/>
+      <c r="AG23" s="93"/>
+      <c r="AH23" s="93"/>
+      <c r="AI23" s="93"/>
+      <c r="AJ23" s="93"/>
+      <c r="AK23" s="93"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="139" t="s">
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140" t="s">
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141" t="s">
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141" t="s">
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="101"/>
+      <c r="P24" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141" t="s">
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141" t="s">
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="139" t="s">
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="139"/>
-      <c r="AI24" s="139"/>
-      <c r="AJ24" s="139"/>
-      <c r="AK24" s="139"/>
+      <c r="AF24" s="99"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="99"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3266,154 +3267,154 @@
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143" t="s">
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143" t="s">
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143" t="s">
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143" t="s">
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="143"/>
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="143"/>
-      <c r="AF26" s="143" t="s">
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="AG26" s="143"/>
-      <c r="AH26" s="143"/>
-      <c r="AI26" s="143"/>
-      <c r="AJ26" s="143"/>
-      <c r="AK26" s="143"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="93"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="136" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62" t="s">
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62" t="s">
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63" t="s">
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="137" t="s">
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137" t="s">
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="137"/>
-      <c r="AI27" s="137"/>
-      <c r="AJ27" s="137"/>
-      <c r="AK27" s="137"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="110" t="s">
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
-      <c r="V28" s="110"/>
-      <c r="W28" s="110"/>
-      <c r="X28" s="110"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="137"/>
-      <c r="AA28" s="137"/>
-      <c r="AB28" s="137"/>
-      <c r="AC28" s="137"/>
-      <c r="AD28" s="137"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="107"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="104"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3422,38 +3423,38 @@
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="137"/>
-      <c r="AJ29" s="137"/>
-      <c r="AK29" s="137"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
+      <c r="AE29" s="104"/>
+      <c r="AF29" s="104"/>
+      <c r="AG29" s="104"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="104"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="104"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3462,38 +3463,38 @@
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="137"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="110"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="104"/>
+      <c r="AJ30" s="104"/>
+      <c r="AK30" s="104"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="47"/>
     </row>
@@ -3791,322 +3792,322 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="118"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="131" t="s">
+      <c r="I38" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="131"/>
-      <c r="U38" s="131"/>
-      <c r="V38" s="131"/>
-      <c r="W38" s="131"/>
-      <c r="X38" s="131"/>
-      <c r="Y38" s="131"/>
-      <c r="Z38" s="131"/>
-      <c r="AA38" s="125" t="s">
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="132" t="s">
+      <c r="AB38" s="113"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="AG38" s="132"/>
-      <c r="AH38" s="132"/>
-      <c r="AI38" s="132"/>
-      <c r="AJ38" s="132"/>
-      <c r="AK38" s="132"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="119"/>
+      <c r="AI38" s="119"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="119"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="63" t="s">
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="128" t="s">
+      <c r="AB39" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="128"/>
-      <c r="AE39" s="128"/>
-      <c r="AF39" s="134">
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="121">
         <v>0</v>
       </c>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="134"/>
-      <c r="AI39" s="134"/>
-      <c r="AJ39" s="134"/>
-      <c r="AK39" s="134"/>
+      <c r="AG39" s="121"/>
+      <c r="AH39" s="121"/>
+      <c r="AI39" s="121"/>
+      <c r="AJ39" s="121"/>
+      <c r="AK39" s="121"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="124"/>
-      <c r="R40" s="124"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="27"/>
-      <c r="AC40" s="128" t="s">
+      <c r="AC40" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="AD40" s="128"/>
-      <c r="AE40" s="128"/>
-      <c r="AF40" s="126">
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="114">
         <v>0</v>
       </c>
-      <c r="AG40" s="126"/>
-      <c r="AH40" s="126"/>
-      <c r="AI40" s="126"/>
-      <c r="AJ40" s="126"/>
-      <c r="AK40" s="126"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="125" t="s">
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
+      <c r="Z41" s="112"/>
+      <c r="AA41" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="125"/>
-      <c r="AD41" s="125"/>
-      <c r="AE41" s="125"/>
-      <c r="AF41" s="126">
+      <c r="AB41" s="113"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="114">
         <v>0</v>
       </c>
-      <c r="AG41" s="126"/>
-      <c r="AH41" s="126"/>
-      <c r="AI41" s="126"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="126"/>
+      <c r="AG41" s="114"/>
+      <c r="AH41" s="114"/>
+      <c r="AI41" s="114"/>
+      <c r="AJ41" s="114"/>
+      <c r="AK41" s="114"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="109" t="s">
+      <c r="I42" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="110"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="110"/>
-      <c r="X42" s="110"/>
-      <c r="Y42" s="110"/>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="125" t="s">
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="106"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="106"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="125"/>
-      <c r="AD42" s="125"/>
-      <c r="AE42" s="125"/>
-      <c r="AF42" s="126">
+      <c r="AB42" s="113"/>
+      <c r="AC42" s="113"/>
+      <c r="AD42" s="113"/>
+      <c r="AE42" s="113"/>
+      <c r="AF42" s="114">
         <v>0</v>
       </c>
-      <c r="AG42" s="126"/>
-      <c r="AH42" s="126"/>
-      <c r="AI42" s="126"/>
-      <c r="AJ42" s="126"/>
-      <c r="AK42" s="126"/>
+      <c r="AG42" s="114"/>
+      <c r="AH42" s="114"/>
+      <c r="AI42" s="114"/>
+      <c r="AJ42" s="114"/>
+      <c r="AK42" s="114"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="114"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="109"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="128" t="s">
+      <c r="AB43" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="AC43" s="128"/>
-      <c r="AD43" s="128"/>
-      <c r="AE43" s="128"/>
-      <c r="AF43" s="129" t="s">
+      <c r="AC43" s="116"/>
+      <c r="AD43" s="116"/>
+      <c r="AE43" s="116"/>
+      <c r="AF43" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="AG43" s="129"/>
-      <c r="AH43" s="129"/>
-      <c r="AI43" s="129"/>
-      <c r="AJ43" s="129"/>
-      <c r="AK43" s="129"/>
+      <c r="AG43" s="117"/>
+      <c r="AH43" s="117"/>
+      <c r="AI43" s="117"/>
+      <c r="AJ43" s="117"/>
+      <c r="AK43" s="117"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="116"/>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="117"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="110"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="110"/>
+      <c r="R44" s="110"/>
+      <c r="S44" s="110"/>
+      <c r="T44" s="110"/>
+      <c r="U44" s="110"/>
+      <c r="V44" s="110"/>
+      <c r="W44" s="110"/>
+      <c r="X44" s="110"/>
+      <c r="Y44" s="110"/>
+      <c r="Z44" s="111"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="105" t="s">
+      <c r="AB44" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="AC44" s="105"/>
-      <c r="AD44" s="105"/>
-      <c r="AE44" s="105"/>
-      <c r="AF44" s="106" t="s">
+      <c r="AC44" s="122"/>
+      <c r="AD44" s="122"/>
+      <c r="AE44" s="122"/>
+      <c r="AF44" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="AG44" s="106"/>
-      <c r="AH44" s="106"/>
-      <c r="AI44" s="106"/>
-      <c r="AJ44" s="106"/>
-      <c r="AK44" s="106"/>
+      <c r="AG44" s="123"/>
+      <c r="AH44" s="123"/>
+      <c r="AI44" s="123"/>
+      <c r="AJ44" s="123"/>
+      <c r="AK44" s="123"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -4155,42 +4156,42 @@
         <v>56</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="108"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="108"/>
-      <c r="Y46" s="108"/>
-      <c r="Z46" s="108"/>
-      <c r="AA46" s="108"/>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108"/>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="108"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="125"/>
+      <c r="AB46" s="125"/>
+      <c r="AC46" s="125"/>
+      <c r="AD46" s="125"/>
+      <c r="AE46" s="125"/>
+      <c r="AF46" s="125"/>
+      <c r="AG46" s="125"/>
+      <c r="AH46" s="125"/>
+      <c r="AI46" s="125"/>
+      <c r="AJ46" s="125"/>
+      <c r="AK46" s="125"/>
       <c r="AL46" s="4" t="s">
         <v>154</v>
       </c>
@@ -4359,38 +4360,38 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73" t="s">
+      <c r="C51" s="126"/>
+      <c r="D51" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="67" t="s">
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="74" t="s">
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="129"/>
+      <c r="N51" s="129"/>
+      <c r="O51" s="129"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="67" t="s">
+      <c r="Q51" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
+      <c r="R51" s="128"/>
+      <c r="S51" s="128"/>
+      <c r="T51" s="128"/>
+      <c r="U51" s="128"/>
+      <c r="V51" s="128"/>
+      <c r="W51" s="128"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4401,24 +4402,24 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="75" t="s">
+      <c r="AH51" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="AI51" s="75"/>
-      <c r="AJ51" s="75"/>
-      <c r="AK51" s="75"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="60"/>
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="75" t="str">
+      <c r="B52" s="60" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4454,306 +4455,306 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="68"/>
-      <c r="W53" s="68"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="68"/>
-      <c r="Z53" s="68"/>
-      <c r="AA53" s="68"/>
-      <c r="AB53" s="68"/>
-      <c r="AC53" s="68"/>
-      <c r="AD53" s="68"/>
-      <c r="AE53" s="68"/>
-      <c r="AF53" s="68"/>
-      <c r="AG53" s="68"/>
-      <c r="AH53" s="68"/>
-      <c r="AI53" s="68"/>
-      <c r="AJ53" s="68"/>
-      <c r="AK53" s="68"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="139"/>
+      <c r="P53" s="139"/>
+      <c r="Q53" s="139"/>
+      <c r="R53" s="139"/>
+      <c r="S53" s="139"/>
+      <c r="T53" s="139"/>
+      <c r="U53" s="139"/>
+      <c r="V53" s="139"/>
+      <c r="W53" s="139"/>
+      <c r="X53" s="139"/>
+      <c r="Y53" s="139"/>
+      <c r="Z53" s="139"/>
+      <c r="AA53" s="139"/>
+      <c r="AB53" s="139"/>
+      <c r="AC53" s="139"/>
+      <c r="AD53" s="139"/>
+      <c r="AE53" s="139"/>
+      <c r="AF53" s="139"/>
+      <c r="AG53" s="139"/>
+      <c r="AH53" s="139"/>
+      <c r="AI53" s="139"/>
+      <c r="AJ53" s="139"/>
+      <c r="AK53" s="139"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="101" t="s">
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="102" t="s">
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="103" t="s">
+      <c r="K54" s="142"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="103"/>
-      <c r="O54" s="103"/>
-      <c r="P54" s="102" t="s">
+      <c r="N54" s="143"/>
+      <c r="O54" s="143"/>
+      <c r="P54" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="102"/>
-      <c r="W54" s="102"/>
-      <c r="X54" s="102"/>
-      <c r="Y54" s="102"/>
-      <c r="Z54" s="102"/>
-      <c r="AA54" s="102"/>
-      <c r="AB54" s="102"/>
-      <c r="AC54" s="102"/>
-      <c r="AD54" s="102"/>
-      <c r="AE54" s="102"/>
-      <c r="AF54" s="102"/>
-      <c r="AG54" s="102"/>
-      <c r="AH54" s="102" t="s">
+      <c r="Q54" s="142"/>
+      <c r="R54" s="142"/>
+      <c r="S54" s="142"/>
+      <c r="T54" s="142"/>
+      <c r="U54" s="142"/>
+      <c r="V54" s="142"/>
+      <c r="W54" s="142"/>
+      <c r="X54" s="142"/>
+      <c r="Y54" s="142"/>
+      <c r="Z54" s="142"/>
+      <c r="AA54" s="142"/>
+      <c r="AB54" s="142"/>
+      <c r="AC54" s="142"/>
+      <c r="AD54" s="142"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="142"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="AI54" s="102"/>
-      <c r="AJ54" s="102"/>
-      <c r="AK54" s="102"/>
+      <c r="AI54" s="142"/>
+      <c r="AJ54" s="142"/>
+      <c r="AK54" s="142"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89" t="s">
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="102" t="s">
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="142"/>
+      <c r="M55" s="143"/>
+      <c r="N55" s="143"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="102"/>
-      <c r="T55" s="102"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="102" t="s">
+      <c r="Q55" s="142"/>
+      <c r="R55" s="142"/>
+      <c r="S55" s="142"/>
+      <c r="T55" s="142"/>
+      <c r="U55" s="142"/>
+      <c r="V55" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="102"/>
-      <c r="X55" s="102"/>
-      <c r="Y55" s="102"/>
-      <c r="Z55" s="102"/>
-      <c r="AA55" s="102"/>
-      <c r="AB55" s="104" t="s">
+      <c r="W55" s="142"/>
+      <c r="X55" s="142"/>
+      <c r="Y55" s="142"/>
+      <c r="Z55" s="142"/>
+      <c r="AA55" s="142"/>
+      <c r="AB55" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104"/>
-      <c r="AH55" s="102"/>
-      <c r="AI55" s="102"/>
-      <c r="AJ55" s="102"/>
-      <c r="AK55" s="102"/>
+      <c r="AC55" s="145"/>
+      <c r="AD55" s="145"/>
+      <c r="AE55" s="145"/>
+      <c r="AF55" s="145"/>
+      <c r="AG55" s="145"/>
+      <c r="AH55" s="142"/>
+      <c r="AI55" s="142"/>
+      <c r="AJ55" s="142"/>
+      <c r="AK55" s="142"/>
       <c r="AL55" s="31"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94" t="s">
+      <c r="C56" s="149"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="95" t="s">
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="150"/>
+      <c r="I56" s="150"/>
+      <c r="J56" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="K56" s="95"/>
-      <c r="L56" s="95"/>
-      <c r="M56" s="96" t="s">
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="97" t="s">
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="Q56" s="97"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="97"/>
-      <c r="T56" s="97"/>
-      <c r="U56" s="97"/>
-      <c r="V56" s="97" t="s">
+      <c r="Q56" s="151"/>
+      <c r="R56" s="151"/>
+      <c r="S56" s="151"/>
+      <c r="T56" s="151"/>
+      <c r="U56" s="151"/>
+      <c r="V56" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="98" t="s">
+      <c r="W56" s="151"/>
+      <c r="X56" s="151"/>
+      <c r="Y56" s="151"/>
+      <c r="Z56" s="151"/>
+      <c r="AA56" s="151"/>
+      <c r="AB56" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="AC56" s="98"/>
-      <c r="AD56" s="98"/>
-      <c r="AE56" s="98"/>
-      <c r="AF56" s="98"/>
-      <c r="AG56" s="98"/>
-      <c r="AH56" s="99" t="s">
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="152"/>
+      <c r="AE56" s="152"/>
+      <c r="AF56" s="152"/>
+      <c r="AG56" s="152"/>
+      <c r="AH56" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="99"/>
-      <c r="AK56" s="99"/>
+      <c r="AI56" s="153"/>
+      <c r="AJ56" s="153"/>
+      <c r="AK56" s="153"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="90" t="s">
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="90"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="90"/>
-      <c r="U57" s="90"/>
-      <c r="V57" s="90" t="s">
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="W57" s="90"/>
-      <c r="X57" s="90"/>
-      <c r="Y57" s="90"/>
-      <c r="Z57" s="90"/>
-      <c r="AA57" s="90"/>
-      <c r="AB57" s="91" t="s">
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="146"/>
+      <c r="Z57" s="146"/>
+      <c r="AA57" s="146"/>
+      <c r="AB57" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="91"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="92">
+      <c r="AC57" s="147"/>
+      <c r="AD57" s="147"/>
+      <c r="AE57" s="147"/>
+      <c r="AF57" s="147"/>
+      <c r="AG57" s="147"/>
+      <c r="AH57" s="148">
         <v>1</v>
       </c>
-      <c r="AI57" s="92"/>
-      <c r="AJ57" s="92"/>
-      <c r="AK57" s="92"/>
+      <c r="AI57" s="148"/>
+      <c r="AJ57" s="148"/>
+      <c r="AK57" s="148"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="88">
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="163">
         <v>0</v>
       </c>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88">
+      <c r="Q58" s="163"/>
+      <c r="R58" s="163"/>
+      <c r="S58" s="163"/>
+      <c r="T58" s="163"/>
+      <c r="U58" s="163"/>
+      <c r="V58" s="163">
         <v>0</v>
       </c>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88">
+      <c r="W58" s="163"/>
+      <c r="X58" s="163"/>
+      <c r="Y58" s="163"/>
+      <c r="Z58" s="163"/>
+      <c r="AA58" s="163"/>
+      <c r="AB58" s="163">
         <v>0</v>
       </c>
-      <c r="AC58" s="88"/>
-      <c r="AD58" s="88"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="88"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="67" t="s">
+      <c r="AC58" s="163"/>
+      <c r="AD58" s="163"/>
+      <c r="AE58" s="163"/>
+      <c r="AF58" s="163"/>
+      <c r="AG58" s="163"/>
+      <c r="AH58" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="AI58" s="67"/>
-      <c r="AJ58" s="67"/>
-      <c r="AK58" s="67"/>
+      <c r="AI58" s="128"/>
+      <c r="AJ58" s="128"/>
+      <c r="AK58" s="128"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -4798,326 +4799,326 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
-      <c r="AE60" s="68"/>
-      <c r="AF60" s="68"/>
-      <c r="AG60" s="68"/>
-      <c r="AH60" s="68"/>
-      <c r="AI60" s="68"/>
-      <c r="AJ60" s="68"/>
-      <c r="AK60" s="68"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="139"/>
+      <c r="R60" s="139"/>
+      <c r="S60" s="139"/>
+      <c r="T60" s="139"/>
+      <c r="U60" s="139"/>
+      <c r="V60" s="139"/>
+      <c r="W60" s="139"/>
+      <c r="X60" s="139"/>
+      <c r="Y60" s="139"/>
+      <c r="Z60" s="139"/>
+      <c r="AA60" s="139"/>
+      <c r="AB60" s="139"/>
+      <c r="AC60" s="139"/>
+      <c r="AD60" s="139"/>
+      <c r="AE60" s="139"/>
+      <c r="AF60" s="139"/>
+      <c r="AG60" s="139"/>
+      <c r="AH60" s="139"/>
+      <c r="AI60" s="139"/>
+      <c r="AJ60" s="139"/>
+      <c r="AK60" s="139"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="80"/>
-      <c r="U61" s="80"/>
-      <c r="V61" s="80"/>
-      <c r="W61" s="80"/>
-      <c r="X61" s="80"/>
-      <c r="Y61" s="80"/>
-      <c r="Z61" s="80"/>
-      <c r="AA61" s="80"/>
-      <c r="AB61" s="80"/>
-      <c r="AC61" s="80"/>
-      <c r="AD61" s="80"/>
-      <c r="AE61" s="80"/>
-      <c r="AF61" s="80"/>
-      <c r="AG61" s="80"/>
-      <c r="AH61" s="80"/>
-      <c r="AI61" s="80"/>
-      <c r="AJ61" s="80"/>
-      <c r="AK61" s="81"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="155"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="155"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="155"/>
+      <c r="Y61" s="155"/>
+      <c r="Z61" s="155"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="155"/>
+      <c r="AC61" s="155"/>
+      <c r="AD61" s="155"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="155"/>
+      <c r="AG61" s="155"/>
+      <c r="AH61" s="155"/>
+      <c r="AI61" s="155"/>
+      <c r="AJ61" s="155"/>
+      <c r="AK61" s="156"/>
       <c r="AL61" s="31"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="83"/>
-      <c r="V62" s="83"/>
-      <c r="W62" s="83"/>
-      <c r="X62" s="83"/>
-      <c r="Y62" s="83"/>
-      <c r="Z62" s="83"/>
-      <c r="AA62" s="83"/>
-      <c r="AB62" s="83"/>
-      <c r="AC62" s="83"/>
-      <c r="AD62" s="83"/>
-      <c r="AE62" s="83"/>
-      <c r="AF62" s="83"/>
-      <c r="AG62" s="83"/>
-      <c r="AH62" s="83"/>
-      <c r="AI62" s="83"/>
-      <c r="AJ62" s="83"/>
-      <c r="AK62" s="84"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="158"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="158"/>
+      <c r="K62" s="158"/>
+      <c r="L62" s="158"/>
+      <c r="M62" s="158"/>
+      <c r="N62" s="158"/>
+      <c r="O62" s="158"/>
+      <c r="P62" s="158"/>
+      <c r="Q62" s="158"/>
+      <c r="R62" s="158"/>
+      <c r="S62" s="158"/>
+      <c r="T62" s="158"/>
+      <c r="U62" s="158"/>
+      <c r="V62" s="158"/>
+      <c r="W62" s="158"/>
+      <c r="X62" s="158"/>
+      <c r="Y62" s="158"/>
+      <c r="Z62" s="158"/>
+      <c r="AA62" s="158"/>
+      <c r="AB62" s="158"/>
+      <c r="AC62" s="158"/>
+      <c r="AD62" s="158"/>
+      <c r="AE62" s="158"/>
+      <c r="AF62" s="158"/>
+      <c r="AG62" s="158"/>
+      <c r="AH62" s="158"/>
+      <c r="AI62" s="158"/>
+      <c r="AJ62" s="158"/>
+      <c r="AK62" s="159"/>
       <c r="AL62" s="31"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="83"/>
-      <c r="S63" s="83"/>
-      <c r="T63" s="83"/>
-      <c r="U63" s="83"/>
-      <c r="V63" s="83"/>
-      <c r="W63" s="83"/>
-      <c r="X63" s="83"/>
-      <c r="Y63" s="83"/>
-      <c r="Z63" s="83"/>
-      <c r="AA63" s="83"/>
-      <c r="AB63" s="83"/>
-      <c r="AC63" s="83"/>
-      <c r="AD63" s="83"/>
-      <c r="AE63" s="83"/>
-      <c r="AF63" s="83"/>
-      <c r="AG63" s="83"/>
-      <c r="AH63" s="83"/>
-      <c r="AI63" s="83"/>
-      <c r="AJ63" s="83"/>
-      <c r="AK63" s="84"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="158"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="158"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
+      <c r="P63" s="158"/>
+      <c r="Q63" s="158"/>
+      <c r="R63" s="158"/>
+      <c r="S63" s="158"/>
+      <c r="T63" s="158"/>
+      <c r="U63" s="158"/>
+      <c r="V63" s="158"/>
+      <c r="W63" s="158"/>
+      <c r="X63" s="158"/>
+      <c r="Y63" s="158"/>
+      <c r="Z63" s="158"/>
+      <c r="AA63" s="158"/>
+      <c r="AB63" s="158"/>
+      <c r="AC63" s="158"/>
+      <c r="AD63" s="158"/>
+      <c r="AE63" s="158"/>
+      <c r="AF63" s="158"/>
+      <c r="AG63" s="158"/>
+      <c r="AH63" s="158"/>
+      <c r="AI63" s="158"/>
+      <c r="AJ63" s="158"/>
+      <c r="AK63" s="159"/>
       <c r="AL63" s="31"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
-      <c r="S64" s="83"/>
-      <c r="T64" s="83"/>
-      <c r="U64" s="83"/>
-      <c r="V64" s="83"/>
-      <c r="W64" s="83"/>
-      <c r="X64" s="83"/>
-      <c r="Y64" s="83"/>
-      <c r="Z64" s="83"/>
-      <c r="AA64" s="83"/>
-      <c r="AB64" s="83"/>
-      <c r="AC64" s="83"/>
-      <c r="AD64" s="83"/>
-      <c r="AE64" s="83"/>
-      <c r="AF64" s="83"/>
-      <c r="AG64" s="83"/>
-      <c r="AH64" s="83"/>
-      <c r="AI64" s="83"/>
-      <c r="AJ64" s="83"/>
-      <c r="AK64" s="84"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="158"/>
+      <c r="S64" s="158"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="158"/>
+      <c r="W64" s="158"/>
+      <c r="X64" s="158"/>
+      <c r="Y64" s="158"/>
+      <c r="Z64" s="158"/>
+      <c r="AA64" s="158"/>
+      <c r="AB64" s="158"/>
+      <c r="AC64" s="158"/>
+      <c r="AD64" s="158"/>
+      <c r="AE64" s="158"/>
+      <c r="AF64" s="158"/>
+      <c r="AG64" s="158"/>
+      <c r="AH64" s="158"/>
+      <c r="AI64" s="158"/>
+      <c r="AJ64" s="158"/>
+      <c r="AK64" s="159"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
-      <c r="R65" s="83"/>
-      <c r="S65" s="83"/>
-      <c r="T65" s="83"/>
-      <c r="U65" s="83"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="83"/>
-      <c r="X65" s="83"/>
-      <c r="Y65" s="83"/>
-      <c r="Z65" s="83"/>
-      <c r="AA65" s="83"/>
-      <c r="AB65" s="83"/>
-      <c r="AC65" s="83"/>
-      <c r="AD65" s="83"/>
-      <c r="AE65" s="83"/>
-      <c r="AF65" s="83"/>
-      <c r="AG65" s="83"/>
-      <c r="AH65" s="83"/>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
-      <c r="AK65" s="84"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="158"/>
+      <c r="M65" s="158"/>
+      <c r="N65" s="158"/>
+      <c r="O65" s="158"/>
+      <c r="P65" s="158"/>
+      <c r="Q65" s="158"/>
+      <c r="R65" s="158"/>
+      <c r="S65" s="158"/>
+      <c r="T65" s="158"/>
+      <c r="U65" s="158"/>
+      <c r="V65" s="158"/>
+      <c r="W65" s="158"/>
+      <c r="X65" s="158"/>
+      <c r="Y65" s="158"/>
+      <c r="Z65" s="158"/>
+      <c r="AA65" s="158"/>
+      <c r="AB65" s="158"/>
+      <c r="AC65" s="158"/>
+      <c r="AD65" s="158"/>
+      <c r="AE65" s="158"/>
+      <c r="AF65" s="158"/>
+      <c r="AG65" s="158"/>
+      <c r="AH65" s="158"/>
+      <c r="AI65" s="158"/>
+      <c r="AJ65" s="158"/>
+      <c r="AK65" s="159"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
-      <c r="S66" s="83"/>
-      <c r="T66" s="83"/>
-      <c r="U66" s="83"/>
-      <c r="V66" s="83"/>
-      <c r="W66" s="83"/>
-      <c r="X66" s="83"/>
-      <c r="Y66" s="83"/>
-      <c r="Z66" s="83"/>
-      <c r="AA66" s="83"/>
-      <c r="AB66" s="83"/>
-      <c r="AC66" s="83"/>
-      <c r="AD66" s="83"/>
-      <c r="AE66" s="83"/>
-      <c r="AF66" s="83"/>
-      <c r="AG66" s="83"/>
-      <c r="AH66" s="83"/>
-      <c r="AI66" s="83"/>
-      <c r="AJ66" s="83"/>
-      <c r="AK66" s="84"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="158"/>
+      <c r="Q66" s="158"/>
+      <c r="R66" s="158"/>
+      <c r="S66" s="158"/>
+      <c r="T66" s="158"/>
+      <c r="U66" s="158"/>
+      <c r="V66" s="158"/>
+      <c r="W66" s="158"/>
+      <c r="X66" s="158"/>
+      <c r="Y66" s="158"/>
+      <c r="Z66" s="158"/>
+      <c r="AA66" s="158"/>
+      <c r="AB66" s="158"/>
+      <c r="AC66" s="158"/>
+      <c r="AD66" s="158"/>
+      <c r="AE66" s="158"/>
+      <c r="AF66" s="158"/>
+      <c r="AG66" s="158"/>
+      <c r="AH66" s="158"/>
+      <c r="AI66" s="158"/>
+      <c r="AJ66" s="158"/>
+      <c r="AK66" s="159"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="86"/>
-      <c r="O67" s="86"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="86"/>
-      <c r="R67" s="86"/>
-      <c r="S67" s="86"/>
-      <c r="T67" s="86"/>
-      <c r="U67" s="86"/>
-      <c r="V67" s="86"/>
-      <c r="W67" s="86"/>
-      <c r="X67" s="86"/>
-      <c r="Y67" s="86"/>
-      <c r="Z67" s="86"/>
-      <c r="AA67" s="86"/>
-      <c r="AB67" s="86"/>
-      <c r="AC67" s="86"/>
-      <c r="AD67" s="86"/>
-      <c r="AE67" s="86"/>
-      <c r="AF67" s="86"/>
-      <c r="AG67" s="86"/>
-      <c r="AH67" s="86"/>
-      <c r="AI67" s="86"/>
-      <c r="AJ67" s="86"/>
-      <c r="AK67" s="87"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="161"/>
+      <c r="H67" s="161"/>
+      <c r="I67" s="161"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="161"/>
+      <c r="L67" s="161"/>
+      <c r="M67" s="161"/>
+      <c r="N67" s="161"/>
+      <c r="O67" s="161"/>
+      <c r="P67" s="161"/>
+      <c r="Q67" s="161"/>
+      <c r="R67" s="161"/>
+      <c r="S67" s="161"/>
+      <c r="T67" s="161"/>
+      <c r="U67" s="161"/>
+      <c r="V67" s="161"/>
+      <c r="W67" s="161"/>
+      <c r="X67" s="161"/>
+      <c r="Y67" s="161"/>
+      <c r="Z67" s="161"/>
+      <c r="AA67" s="161"/>
+      <c r="AB67" s="161"/>
+      <c r="AC67" s="161"/>
+      <c r="AD67" s="161"/>
+      <c r="AE67" s="161"/>
+      <c r="AF67" s="161"/>
+      <c r="AG67" s="161"/>
+      <c r="AH67" s="161"/>
+      <c r="AI67" s="161"/>
+      <c r="AJ67" s="161"/>
+      <c r="AK67" s="162"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -5162,86 +5163,86 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="68"/>
-      <c r="V69" s="68"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="68"/>
-      <c r="Y69" s="68"/>
-      <c r="Z69" s="68"/>
-      <c r="AA69" s="68"/>
-      <c r="AB69" s="68"/>
-      <c r="AC69" s="68"/>
-      <c r="AD69" s="68"/>
-      <c r="AE69" s="68"/>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="68"/>
-      <c r="AH69" s="68"/>
-      <c r="AI69" s="68"/>
-      <c r="AJ69" s="68"/>
-      <c r="AK69" s="68"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
+      <c r="J69" s="139"/>
+      <c r="K69" s="139"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="139"/>
+      <c r="R69" s="139"/>
+      <c r="S69" s="139"/>
+      <c r="T69" s="139"/>
+      <c r="U69" s="139"/>
+      <c r="V69" s="139"/>
+      <c r="W69" s="139"/>
+      <c r="X69" s="139"/>
+      <c r="Y69" s="139"/>
+      <c r="Z69" s="139"/>
+      <c r="AA69" s="139"/>
+      <c r="AB69" s="139"/>
+      <c r="AC69" s="139"/>
+      <c r="AD69" s="139"/>
+      <c r="AE69" s="139"/>
+      <c r="AF69" s="139"/>
+      <c r="AG69" s="139"/>
+      <c r="AH69" s="139"/>
+      <c r="AI69" s="139"/>
+      <c r="AJ69" s="139"/>
+      <c r="AK69" s="139"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="59"/>
-      <c r="AB70" s="59"/>
-      <c r="AC70" s="59"/>
-      <c r="AD70" s="59"/>
-      <c r="AE70" s="59"/>
-      <c r="AF70" s="59"/>
-      <c r="AG70" s="59"/>
-      <c r="AH70" s="59"/>
-      <c r="AI70" s="59"/>
-      <c r="AJ70" s="59"/>
-      <c r="AK70" s="59"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="91"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="91"/>
+      <c r="R70" s="91"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="91"/>
+      <c r="X70" s="91"/>
+      <c r="Y70" s="91"/>
+      <c r="Z70" s="91"/>
+      <c r="AA70" s="91"/>
+      <c r="AB70" s="91"/>
+      <c r="AC70" s="91"/>
+      <c r="AD70" s="91"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="91"/>
+      <c r="AG70" s="91"/>
+      <c r="AH70" s="91"/>
+      <c r="AI70" s="91"/>
+      <c r="AJ70" s="91"/>
+      <c r="AK70" s="91"/>
       <c r="AL70" s="31"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -5286,86 +5287,86 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
-      <c r="Q72" s="68"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="68"/>
-      <c r="T72" s="68"/>
-      <c r="U72" s="68"/>
-      <c r="V72" s="68"/>
-      <c r="W72" s="68"/>
-      <c r="X72" s="68"/>
-      <c r="Y72" s="68"/>
-      <c r="Z72" s="68"/>
-      <c r="AA72" s="68"/>
-      <c r="AB72" s="68"/>
-      <c r="AC72" s="68"/>
-      <c r="AD72" s="68"/>
-      <c r="AE72" s="68"/>
-      <c r="AF72" s="68"/>
-      <c r="AG72" s="68"/>
-      <c r="AH72" s="68"/>
-      <c r="AI72" s="68"/>
-      <c r="AJ72" s="68"/>
-      <c r="AK72" s="68"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+      <c r="G72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="139"/>
+      <c r="K72" s="139"/>
+      <c r="L72" s="139"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="139"/>
+      <c r="O72" s="139"/>
+      <c r="P72" s="139"/>
+      <c r="Q72" s="139"/>
+      <c r="R72" s="139"/>
+      <c r="S72" s="139"/>
+      <c r="T72" s="139"/>
+      <c r="U72" s="139"/>
+      <c r="V72" s="139"/>
+      <c r="W72" s="139"/>
+      <c r="X72" s="139"/>
+      <c r="Y72" s="139"/>
+      <c r="Z72" s="139"/>
+      <c r="AA72" s="139"/>
+      <c r="AB72" s="139"/>
+      <c r="AC72" s="139"/>
+      <c r="AD72" s="139"/>
+      <c r="AE72" s="139"/>
+      <c r="AF72" s="139"/>
+      <c r="AG72" s="139"/>
+      <c r="AH72" s="139"/>
+      <c r="AI72" s="139"/>
+      <c r="AJ72" s="139"/>
+      <c r="AK72" s="139"/>
       <c r="AL72" s="31"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
-      <c r="X73" s="59"/>
-      <c r="Y73" s="59"/>
-      <c r="Z73" s="59"/>
-      <c r="AA73" s="59"/>
-      <c r="AB73" s="59"/>
-      <c r="AC73" s="59"/>
-      <c r="AD73" s="59"/>
-      <c r="AE73" s="59"/>
-      <c r="AF73" s="59"/>
-      <c r="AG73" s="59"/>
-      <c r="AH73" s="59"/>
-      <c r="AI73" s="59"/>
-      <c r="AJ73" s="59"/>
-      <c r="AK73" s="59"/>
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="91"/>
+      <c r="I73" s="91"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="91"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
+      <c r="O73" s="91"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="91"/>
+      <c r="R73" s="91"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="91"/>
+      <c r="V73" s="91"/>
+      <c r="W73" s="91"/>
+      <c r="X73" s="91"/>
+      <c r="Y73" s="91"/>
+      <c r="Z73" s="91"/>
+      <c r="AA73" s="91"/>
+      <c r="AB73" s="91"/>
+      <c r="AC73" s="91"/>
+      <c r="AD73" s="91"/>
+      <c r="AE73" s="91"/>
+      <c r="AF73" s="91"/>
+      <c r="AG73" s="91"/>
+      <c r="AH73" s="91"/>
+      <c r="AI73" s="91"/>
+      <c r="AJ73" s="91"/>
+      <c r="AK73" s="91"/>
       <c r="AL73" s="31"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -5410,44 +5411,44 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="46"/>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="68"/>
-      <c r="P75" s="68"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="68"/>
-      <c r="S75" s="68"/>
-      <c r="T75" s="68"/>
-      <c r="U75" s="68"/>
-      <c r="V75" s="68"/>
-      <c r="W75" s="68"/>
-      <c r="X75" s="68"/>
-      <c r="Y75" s="68"/>
-      <c r="Z75" s="68"/>
-      <c r="AA75" s="68"/>
-      <c r="AB75" s="68"/>
-      <c r="AC75" s="68"/>
-      <c r="AD75" s="68"/>
-      <c r="AE75" s="68"/>
-      <c r="AF75" s="68"/>
-      <c r="AG75" s="68"/>
-      <c r="AH75" s="68"/>
-      <c r="AI75" s="68"/>
-      <c r="AJ75" s="68"/>
-      <c r="AK75" s="68"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="139"/>
+      <c r="R75" s="139"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="139"/>
+      <c r="U75" s="139"/>
+      <c r="V75" s="139"/>
+      <c r="W75" s="139"/>
+      <c r="X75" s="139"/>
+      <c r="Y75" s="139"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="139"/>
+      <c r="AB75" s="139"/>
+      <c r="AC75" s="139"/>
+      <c r="AD75" s="139"/>
+      <c r="AE75" s="139"/>
+      <c r="AF75" s="139"/>
+      <c r="AG75" s="139"/>
+      <c r="AH75" s="139"/>
+      <c r="AI75" s="139"/>
+      <c r="AJ75" s="139"/>
+      <c r="AK75" s="139"/>
       <c r="AL75" s="32"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -5533,49 +5534,49 @@
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="45"/>
-      <c r="C78" s="76" t="s">
+      <c r="C78" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="76" t="s">
+      <c r="J78" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="167"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="76" t="s">
+      <c r="Q78" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="R78" s="76"/>
-      <c r="S78" s="76"/>
-      <c r="T78" s="76"/>
-      <c r="U78" s="76"/>
+      <c r="R78" s="167"/>
+      <c r="S78" s="167"/>
+      <c r="T78" s="167"/>
+      <c r="U78" s="167"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="76" t="s">
+      <c r="X78" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="Y78" s="76"/>
-      <c r="Z78" s="76"/>
-      <c r="AA78" s="76"/>
-      <c r="AB78" s="76"/>
+      <c r="Y78" s="167"/>
+      <c r="Z78" s="167"/>
+      <c r="AA78" s="167"/>
+      <c r="AB78" s="167"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="76" t="s">
+      <c r="AE78" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="AF78" s="76"/>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="76"/>
-      <c r="AI78" s="76"/>
+      <c r="AF78" s="167"/>
+      <c r="AG78" s="167"/>
+      <c r="AH78" s="167"/>
+      <c r="AI78" s="167"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="36"/>
       <c r="AL78" s="32"/>
@@ -5586,56 +5587,56 @@
       <c r="C79" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
+      <c r="E79" s="168"/>
+      <c r="F79" s="168"/>
+      <c r="G79" s="168"/>
       <c r="H79" s="41"/>
       <c r="I79" s="5"/>
       <c r="J79" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="K79" s="77" t="s">
+      <c r="K79" s="168" t="s">
         <v>165</v>
       </c>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="77"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="R79" s="77" t="s">
+      <c r="R79" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="S79" s="77"/>
-      <c r="T79" s="77"/>
-      <c r="U79" s="77"/>
+      <c r="S79" s="168"/>
+      <c r="T79" s="168"/>
+      <c r="U79" s="168"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="Y79" s="77" t="s">
+      <c r="Y79" s="168" t="s">
         <v>167</v>
       </c>
-      <c r="Z79" s="77"/>
-      <c r="AA79" s="77"/>
-      <c r="AB79" s="77"/>
+      <c r="Z79" s="168"/>
+      <c r="AA79" s="168"/>
+      <c r="AB79" s="168"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="AF79" s="77" t="s">
+      <c r="AF79" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="AG79" s="77"/>
-      <c r="AH79" s="77"/>
-      <c r="AI79" s="77"/>
+      <c r="AG79" s="168"/>
+      <c r="AH79" s="168"/>
+      <c r="AI79" s="168"/>
       <c r="AJ79" s="41"/>
       <c r="AK79" s="36"/>
       <c r="AL79" s="32"/>
@@ -5644,38 +5645,38 @@
       <c r="A80" s="2"/>
       <c r="B80" s="38"/>
       <c r="C80" s="55"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="169"/>
+      <c r="F80" s="169"/>
+      <c r="G80" s="169"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="55"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="78"/>
-      <c r="M80" s="78"/>
-      <c r="N80" s="78"/>
+      <c r="K80" s="169"/>
+      <c r="L80" s="169"/>
+      <c r="M80" s="169"/>
+      <c r="N80" s="169"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
       <c r="Q80" s="55"/>
-      <c r="R80" s="78"/>
-      <c r="S80" s="78"/>
-      <c r="T80" s="78"/>
-      <c r="U80" s="78"/>
+      <c r="R80" s="169"/>
+      <c r="S80" s="169"/>
+      <c r="T80" s="169"/>
+      <c r="U80" s="169"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="55"/>
-      <c r="Y80" s="78"/>
-      <c r="Z80" s="78"/>
-      <c r="AA80" s="78"/>
-      <c r="AB80" s="78"/>
+      <c r="Y80" s="169"/>
+      <c r="Z80" s="169"/>
+      <c r="AA80" s="169"/>
+      <c r="AB80" s="169"/>
       <c r="AC80" s="37"/>
       <c r="AD80" s="37"/>
       <c r="AE80" s="55"/>
-      <c r="AF80" s="78"/>
-      <c r="AG80" s="78"/>
-      <c r="AH80" s="78"/>
-      <c r="AI80" s="78"/>
+      <c r="AF80" s="169"/>
+      <c r="AG80" s="169"/>
+      <c r="AH80" s="169"/>
+      <c r="AI80" s="169"/>
       <c r="AJ80" s="37"/>
       <c r="AK80" s="39"/>
       <c r="AL80" s="32"/>
@@ -5722,86 +5723,86 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="68" t="s">
+      <c r="B82" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="68"/>
-      <c r="S82" s="68"/>
-      <c r="T82" s="68"/>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
-      <c r="X82" s="68"/>
-      <c r="Y82" s="68"/>
-      <c r="Z82" s="68"/>
-      <c r="AA82" s="68"/>
-      <c r="AB82" s="68"/>
-      <c r="AC82" s="68"/>
-      <c r="AD82" s="68"/>
-      <c r="AE82" s="68"/>
-      <c r="AF82" s="68"/>
-      <c r="AG82" s="68"/>
-      <c r="AH82" s="68"/>
-      <c r="AI82" s="68"/>
-      <c r="AJ82" s="68"/>
-      <c r="AK82" s="68"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="139"/>
+      <c r="L82" s="139"/>
+      <c r="M82" s="139"/>
+      <c r="N82" s="139"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="139"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="139"/>
+      <c r="U82" s="139"/>
+      <c r="V82" s="139"/>
+      <c r="W82" s="139"/>
+      <c r="X82" s="139"/>
+      <c r="Y82" s="139"/>
+      <c r="Z82" s="139"/>
+      <c r="AA82" s="139"/>
+      <c r="AB82" s="139"/>
+      <c r="AC82" s="139"/>
+      <c r="AD82" s="139"/>
+      <c r="AE82" s="139"/>
+      <c r="AF82" s="139"/>
+      <c r="AG82" s="139"/>
+      <c r="AH82" s="139"/>
+      <c r="AI82" s="139"/>
+      <c r="AJ82" s="139"/>
+      <c r="AK82" s="139"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="69" t="s">
+      <c r="B83" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="70"/>
-      <c r="N83" s="70"/>
-      <c r="O83" s="70"/>
-      <c r="P83" s="70"/>
-      <c r="Q83" s="70"/>
-      <c r="R83" s="70"/>
-      <c r="S83" s="70"/>
-      <c r="T83" s="70"/>
-      <c r="U83" s="70"/>
-      <c r="V83" s="70"/>
-      <c r="W83" s="70"/>
-      <c r="X83" s="70"/>
-      <c r="Y83" s="70"/>
-      <c r="Z83" s="70"/>
-      <c r="AA83" s="70"/>
-      <c r="AB83" s="70"/>
-      <c r="AC83" s="70"/>
-      <c r="AD83" s="70"/>
-      <c r="AE83" s="70"/>
-      <c r="AF83" s="70"/>
-      <c r="AG83" s="70"/>
-      <c r="AH83" s="70"/>
-      <c r="AI83" s="70"/>
-      <c r="AJ83" s="70"/>
-      <c r="AK83" s="71"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="165"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="165"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="165"/>
+      <c r="J83" s="165"/>
+      <c r="K83" s="165"/>
+      <c r="L83" s="165"/>
+      <c r="M83" s="165"/>
+      <c r="N83" s="165"/>
+      <c r="O83" s="165"/>
+      <c r="P83" s="165"/>
+      <c r="Q83" s="165"/>
+      <c r="R83" s="165"/>
+      <c r="S83" s="165"/>
+      <c r="T83" s="165"/>
+      <c r="U83" s="165"/>
+      <c r="V83" s="165"/>
+      <c r="W83" s="165"/>
+      <c r="X83" s="165"/>
+      <c r="Y83" s="165"/>
+      <c r="Z83" s="165"/>
+      <c r="AA83" s="165"/>
+      <c r="AB83" s="165"/>
+      <c r="AC83" s="165"/>
+      <c r="AD83" s="165"/>
+      <c r="AE83" s="165"/>
+      <c r="AF83" s="165"/>
+      <c r="AG83" s="165"/>
+      <c r="AH83" s="165"/>
+      <c r="AI83" s="165"/>
+      <c r="AJ83" s="165"/>
+      <c r="AK83" s="166"/>
       <c r="AL83" s="31"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -6999,103 +7000,67 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B75:AK75"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="AE78:AI78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="Q78:U78"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="K79:N80"/>
+    <mergeCell ref="R79:U80"/>
+    <mergeCell ref="Y79:AB80"/>
+    <mergeCell ref="AF79:AI80"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B70:AK70"/>
+    <mergeCell ref="B72:AK72"/>
+    <mergeCell ref="B73:AK73"/>
+    <mergeCell ref="B61:AK67"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="B60:AK60"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="AB57:AG57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="AB56:AG56"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:AK53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:O55"/>
+    <mergeCell ref="P54:AG54"/>
+    <mergeCell ref="AH54:AK55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="AB55:AG55"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="D46:AK46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="I42:Z44"/>
+    <mergeCell ref="B43:H44"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="AA41:AE41"/>
     <mergeCell ref="AF41:AK41"/>
@@ -7115,67 +7080,103 @@
     <mergeCell ref="B40:Z40"/>
     <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="D46:AK46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="I42:Z44"/>
-    <mergeCell ref="B43:H44"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:AK53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:O55"/>
-    <mergeCell ref="P54:AG54"/>
-    <mergeCell ref="AH54:AK55"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="AB55:AG55"/>
-    <mergeCell ref="B57:O57"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="AB57:AG57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="AB56:AG56"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B70:AK70"/>
-    <mergeCell ref="B72:AK72"/>
-    <mergeCell ref="B73:AK73"/>
-    <mergeCell ref="B61:AK67"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="B60:AK60"/>
-    <mergeCell ref="B75:AK75"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="AE78:AI78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="Q78:U78"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="K79:N80"/>
-    <mergeCell ref="R79:U80"/>
-    <mergeCell ref="Y79:AB80"/>
-    <mergeCell ref="AF79:AI80"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/plantilla_pedido.xlsx
+++ b/public/plantilla_pedido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tyrsaAdmin\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FA526D-67CE-4A52-BC30-A1708F3CA533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEA6A8E-3C80-4BC6-BE02-6305BD9857BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,9 +512,6 @@
     <t>{{order.payment_conditions}}</t>
   </si>
   <si>
-    <t>{{letter_total}} {{coin.coin}}</t>
-  </si>
-  <si>
     <t>{% for pago in pagos %} {{pago.concept}} {{pago.percentage}}%,   {% endfor %}</t>
   </si>
   <si>
@@ -651,6 +648,9 @@
   </si>
   <si>
     <t>{{customer_adress.customer_shipping_suburb}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{letter_total}} </t>
   </si>
 </sst>
 </file>
@@ -1279,12 +1279,318 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1305,312 +1611,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2133,20 +2133,20 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
       <c r="N2" s="4"/>
       <c r="O2" s="5" t="s">
         <v>1</v>
@@ -2168,32 +2168,32 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="60" t="s">
+      <c r="AG2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2212,15 +2212,15 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="62" t="s">
+      <c r="AE3" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="164"/>
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
@@ -2255,16 +2255,16 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="63" t="s">
+      <c r="AD4" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2299,16 +2299,16 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="64" t="s">
+      <c r="AD5" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -2341,18 +2341,18 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="11"/>
-      <c r="AD6" s="65" t="s">
+      <c r="AD6" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="66" t="s">
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
+      <c r="AI6" s="168"/>
+      <c r="AJ6" s="168"/>
+      <c r="AK6" s="168"/>
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
@@ -2429,178 +2429,178 @@
       <c r="AE8" s="9"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
-      <c r="AH8" s="67" t="s">
+      <c r="AH8" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
+      <c r="AI8" s="169"/>
+      <c r="AJ8" s="169"/>
+      <c r="AK8" s="169"/>
       <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69" t="s">
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70" t="s">
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="71" t="s">
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="70" t="s">
+      <c r="O9" s="152"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="72" t="s">
+      <c r="U9" s="147"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="73" t="s">
+      <c r="AD9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="74" t="s">
+      <c r="AE9" s="158"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
+      <c r="AI9" s="146"/>
+      <c r="AJ9" s="146"/>
+      <c r="AK9" s="146"/>
       <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75" t="s">
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="131"/>
+      <c r="AB10" s="131"/>
       <c r="AC10" s="16"/>
-      <c r="AD10" s="76" t="s">
+      <c r="AD10" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
+      <c r="AE10" s="159"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI10" s="160"/>
+      <c r="AJ10" s="160"/>
+      <c r="AK10" s="160"/>
       <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
       <c r="AC11" s="16"/>
-      <c r="AD11" s="74" t="s">
+      <c r="AD11" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="146"/>
+      <c r="AG11" s="146"/>
+      <c r="AH11" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI11" s="161"/>
+      <c r="AJ11" s="161"/>
+      <c r="AK11" s="161"/>
       <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="80" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
       <c r="L12" s="54" t="s">
         <v>20</v>
       </c>
@@ -2609,220 +2609,220 @@
         <v>82</v>
       </c>
       <c r="O12" s="53"/>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="W12" s="85"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87" t="s">
+      <c r="W12" s="153"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="75"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="131"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="81" t="s">
+      <c r="AD12" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="82"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
       <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75" t="s">
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="131"/>
+      <c r="AK13" s="131"/>
       <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="78" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="127"/>
+      <c r="AK14" s="127"/>
       <c r="AL14" s="18"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="88" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89" t="s">
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
       <c r="AL15" s="18"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91" t="s">
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="92" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="72" t="s">
+      <c r="AE16" s="144"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.2">
@@ -2867,210 +2867,210 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74" t="s">
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="93" t="s">
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93" t="s">
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93" t="s">
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93" t="s">
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="138"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138"/>
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="89">
+      <c r="B19" s="84">
         <v>1</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="94" t="s">
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94" t="s">
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94" t="s">
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="95" t="s">
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="139"/>
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="91">
+      <c r="B20" s="66">
         <v>2</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="96" t="s">
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96" t="s">
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96" t="s">
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="97" t="s">
+      <c r="AB20" s="140"/>
+      <c r="AC20" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="141"/>
+      <c r="AF20" s="141"/>
+      <c r="AG20" s="141"/>
+      <c r="AH20" s="141"/>
+      <c r="AI20" s="141"/>
+      <c r="AJ20" s="141"/>
+      <c r="AK20" s="141"/>
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="89">
+      <c r="B21" s="84">
         <v>3</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="94" t="s">
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94" t="s">
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94" t="s">
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="95" t="s">
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="139"/>
+      <c r="AK21" s="139"/>
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.2">
@@ -3115,112 +3115,112 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98" t="s">
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98" t="s">
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98" t="s">
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98" t="s">
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98" t="s">
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="93" t="s">
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="93"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="138"/>
+      <c r="AJ23" s="138"/>
+      <c r="AK23" s="138"/>
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="99" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100" t="s">
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101" t="s">
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101" t="s">
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101" t="s">
+      <c r="Q24" s="136"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101" t="s">
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="99"/>
-      <c r="AK24" s="99"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.2">
@@ -3265,156 +3265,156 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93" t="s">
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93" t="s">
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93" t="s">
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93" t="s">
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="138"/>
+      <c r="Y26" s="138"/>
+      <c r="Z26" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="93"/>
-      <c r="AC26" s="93"/>
-      <c r="AD26" s="93"/>
-      <c r="AE26" s="93"/>
-      <c r="AF26" s="93" t="s">
+      <c r="AA26" s="138"/>
+      <c r="AB26" s="138"/>
+      <c r="AC26" s="138"/>
+      <c r="AD26" s="138"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="AG26" s="93"/>
-      <c r="AH26" s="93"/>
-      <c r="AI26" s="93"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="93"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="138"/>
+      <c r="AJ26" s="138"/>
+      <c r="AK26" s="138"/>
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103" t="s">
+      <c r="B27" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75" t="s">
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75" t="s">
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="78" t="s">
+      <c r="S27" s="127"/>
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="127"/>
+      <c r="X27" s="127"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="104" t="s">
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="132"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="132"/>
+      <c r="AF27" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="104"/>
-      <c r="AI27" s="104"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="104"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="132"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="132"/>
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="104"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="132"/>
+      <c r="AD28" s="132"/>
+      <c r="AE28" s="132"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="132"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="132"/>
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.2">
@@ -3423,38 +3423,38 @@
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="108"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="108"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="104"/>
-      <c r="AH29" s="104"/>
-      <c r="AI29" s="104"/>
-      <c r="AJ29" s="104"/>
-      <c r="AK29" s="104"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.2">
@@ -3463,38 +3463,38 @@
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="104"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="104"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="47"/>
     </row>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3705,7 +3705,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
       <c r="AL35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM35" s="47"/>
     </row>
@@ -3748,7 +3748,7 @@
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
@@ -3792,322 +3792,322 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="90" t="s">
+      <c r="I38" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="113" t="s">
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="124"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="124"/>
+      <c r="T38" s="124"/>
+      <c r="U38" s="124"/>
+      <c r="V38" s="124"/>
+      <c r="W38" s="124"/>
+      <c r="X38" s="124"/>
+      <c r="Y38" s="124"/>
+      <c r="Z38" s="124"/>
+      <c r="AA38" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="119" t="s">
+      <c r="AB38" s="118"/>
+      <c r="AC38" s="118"/>
+      <c r="AD38" s="118"/>
+      <c r="AE38" s="118"/>
+      <c r="AF38" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="119"/>
-      <c r="AI38" s="119"/>
-      <c r="AJ38" s="119"/>
-      <c r="AK38" s="119"/>
+      <c r="AG38" s="125"/>
+      <c r="AH38" s="125"/>
+      <c r="AI38" s="125"/>
+      <c r="AJ38" s="125"/>
+      <c r="AK38" s="125"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
+      <c r="W39" s="127"/>
+      <c r="X39" s="127"/>
+      <c r="Y39" s="127"/>
+      <c r="Z39" s="127"/>
       <c r="AA39" s="25"/>
-      <c r="AB39" s="116" t="s">
+      <c r="AB39" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="121">
+      <c r="AC39" s="121"/>
+      <c r="AD39" s="121"/>
+      <c r="AE39" s="121"/>
+      <c r="AF39" s="128">
         <v>0</v>
       </c>
-      <c r="AG39" s="121"/>
-      <c r="AH39" s="121"/>
-      <c r="AI39" s="121"/>
-      <c r="AJ39" s="121"/>
-      <c r="AK39" s="121"/>
+      <c r="AG39" s="128"/>
+      <c r="AH39" s="128"/>
+      <c r="AI39" s="128"/>
+      <c r="AJ39" s="128"/>
+      <c r="AK39" s="128"/>
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="117"/>
+      <c r="T40" s="117"/>
+      <c r="U40" s="117"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+      <c r="X40" s="117"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="27"/>
-      <c r="AC40" s="116" t="s">
+      <c r="AC40" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="114">
+      <c r="AD40" s="121"/>
+      <c r="AE40" s="121"/>
+      <c r="AF40" s="119">
         <v>0</v>
       </c>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="114"/>
-      <c r="AJ40" s="114"/>
-      <c r="AK40" s="114"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="119"/>
+      <c r="AI40" s="119"/>
+      <c r="AJ40" s="119"/>
+      <c r="AK40" s="119"/>
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112"/>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="112"/>
-      <c r="AA41" s="113" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="117"/>
+      <c r="T41" s="117"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+      <c r="X41" s="117"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="114">
+      <c r="AB41" s="118"/>
+      <c r="AC41" s="118"/>
+      <c r="AD41" s="118"/>
+      <c r="AE41" s="118"/>
+      <c r="AF41" s="119">
         <v>0</v>
       </c>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="114"/>
-      <c r="AI41" s="114"/>
-      <c r="AJ41" s="114"/>
-      <c r="AK41" s="114"/>
+      <c r="AG41" s="119"/>
+      <c r="AH41" s="119"/>
+      <c r="AI41" s="119"/>
+      <c r="AJ41" s="119"/>
+      <c r="AK41" s="119"/>
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="130" t="s">
+      <c r="I42" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="113" t="s">
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="103"/>
+      <c r="Y42" s="103"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="114">
+      <c r="AB42" s="118"/>
+      <c r="AC42" s="118"/>
+      <c r="AD42" s="118"/>
+      <c r="AE42" s="118"/>
+      <c r="AF42" s="119">
         <v>0</v>
       </c>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="114"/>
-      <c r="AI42" s="114"/>
-      <c r="AJ42" s="114"/>
-      <c r="AK42" s="114"/>
+      <c r="AG42" s="119"/>
+      <c r="AH42" s="119"/>
+      <c r="AI42" s="119"/>
+      <c r="AJ42" s="119"/>
+      <c r="AK42" s="119"/>
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="108"/>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="109"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="106"/>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="106"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="106"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="107"/>
       <c r="AA43" s="25"/>
-      <c r="AB43" s="116" t="s">
+      <c r="AB43" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="AC43" s="116"/>
-      <c r="AD43" s="116"/>
-      <c r="AE43" s="116"/>
-      <c r="AF43" s="117" t="s">
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="AG43" s="117"/>
-      <c r="AH43" s="117"/>
-      <c r="AI43" s="117"/>
-      <c r="AJ43" s="117"/>
-      <c r="AK43" s="117"/>
+      <c r="AG43" s="122"/>
+      <c r="AH43" s="122"/>
+      <c r="AI43" s="122"/>
+      <c r="AJ43" s="122"/>
+      <c r="AK43" s="122"/>
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="110"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="110"/>
-      <c r="U44" s="110"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="110"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="111"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="109"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="109"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="110"/>
       <c r="AA44" s="29"/>
-      <c r="AB44" s="122" t="s">
+      <c r="AB44" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AC44" s="122"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="122"/>
-      <c r="AF44" s="123" t="s">
+      <c r="AC44" s="95"/>
+      <c r="AD44" s="95"/>
+      <c r="AE44" s="95"/>
+      <c r="AF44" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="AG44" s="123"/>
-      <c r="AH44" s="123"/>
-      <c r="AI44" s="123"/>
-      <c r="AJ44" s="123"/>
-      <c r="AK44" s="123"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
       <c r="AL44" s="4"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
@@ -4156,44 +4156,44 @@
         <v>56</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="124" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="125"/>
-      <c r="S46" s="125"/>
-      <c r="T46" s="125"/>
-      <c r="U46" s="125"/>
-      <c r="V46" s="125"/>
-      <c r="W46" s="125"/>
-      <c r="X46" s="125"/>
-      <c r="Y46" s="125"/>
-      <c r="Z46" s="125"/>
-      <c r="AA46" s="125"/>
-      <c r="AB46" s="125"/>
-      <c r="AC46" s="125"/>
-      <c r="AD46" s="125"/>
-      <c r="AE46" s="125"/>
-      <c r="AF46" s="125"/>
-      <c r="AG46" s="125"/>
-      <c r="AH46" s="125"/>
-      <c r="AI46" s="125"/>
-      <c r="AJ46" s="125"/>
-      <c r="AK46" s="125"/>
+      <c r="D46" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="98"/>
+      <c r="V46" s="98"/>
+      <c r="W46" s="98"/>
+      <c r="X46" s="98"/>
+      <c r="Y46" s="98"/>
+      <c r="Z46" s="98"/>
+      <c r="AA46" s="98"/>
+      <c r="AB46" s="98"/>
+      <c r="AC46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AE46" s="98"/>
+      <c r="AF46" s="98"/>
+      <c r="AG46" s="98"/>
+      <c r="AH46" s="98"/>
+      <c r="AI46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AK46" s="98"/>
       <c r="AL46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
@@ -4360,38 +4360,38 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="126" t="s">
+      <c r="B51" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127" t="s">
+      <c r="C51" s="99"/>
+      <c r="D51" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="128" t="s">
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="129" t="s">
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="101"/>
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
       <c r="P51" s="4"/>
-      <c r="Q51" s="128" t="s">
+      <c r="Q51" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="R51" s="128"/>
-      <c r="S51" s="128"/>
-      <c r="T51" s="128"/>
-      <c r="U51" s="128"/>
-      <c r="V51" s="128"/>
-      <c r="W51" s="128"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4402,24 +4402,24 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
-      <c r="AH51" s="60" t="s">
+      <c r="AH51" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="AI51" s="60"/>
-      <c r="AJ51" s="60"/>
-      <c r="AK51" s="60"/>
+      <c r="AI51" s="89"/>
+      <c r="AJ51" s="89"/>
+      <c r="AK51" s="89"/>
       <c r="AL51" s="30"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="60" t="str">
+      <c r="B52" s="89" t="str">
         <f>N9</f>
         <v>{{customer.alias}}</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -4455,306 +4455,306 @@
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="139" t="s">
+      <c r="B53" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="139"/>
-      <c r="N53" s="139"/>
-      <c r="O53" s="139"/>
-      <c r="P53" s="139"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="139"/>
-      <c r="W53" s="139"/>
-      <c r="X53" s="139"/>
-      <c r="Y53" s="139"/>
-      <c r="Z53" s="139"/>
-      <c r="AA53" s="139"/>
-      <c r="AB53" s="139"/>
-      <c r="AC53" s="139"/>
-      <c r="AD53" s="139"/>
-      <c r="AE53" s="139"/>
-      <c r="AF53" s="139"/>
-      <c r="AG53" s="139"/>
-      <c r="AH53" s="139"/>
-      <c r="AI53" s="139"/>
-      <c r="AJ53" s="139"/>
-      <c r="AK53" s="139"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="59"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="59"/>
       <c r="AL53" s="4"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="141" t="s">
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="142" t="s">
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="143" t="s">
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="143"/>
-      <c r="O54" s="143"/>
-      <c r="P54" s="142" t="s">
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="Q54" s="142"/>
-      <c r="R54" s="142"/>
-      <c r="S54" s="142"/>
-      <c r="T54" s="142"/>
-      <c r="U54" s="142"/>
-      <c r="V54" s="142"/>
-      <c r="W54" s="142"/>
-      <c r="X54" s="142"/>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="142"/>
-      <c r="AB54" s="142"/>
-      <c r="AC54" s="142"/>
-      <c r="AD54" s="142"/>
-      <c r="AE54" s="142"/>
-      <c r="AF54" s="142"/>
-      <c r="AG54" s="142"/>
-      <c r="AH54" s="142" t="s">
+      <c r="Q54" s="92"/>
+      <c r="R54" s="92"/>
+      <c r="S54" s="92"/>
+      <c r="T54" s="92"/>
+      <c r="U54" s="92"/>
+      <c r="V54" s="92"/>
+      <c r="W54" s="92"/>
+      <c r="X54" s="92"/>
+      <c r="Y54" s="92"/>
+      <c r="Z54" s="92"/>
+      <c r="AA54" s="92"/>
+      <c r="AB54" s="92"/>
+      <c r="AC54" s="92"/>
+      <c r="AD54" s="92"/>
+      <c r="AE54" s="92"/>
+      <c r="AF54" s="92"/>
+      <c r="AG54" s="92"/>
+      <c r="AH54" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="AI54" s="142"/>
-      <c r="AJ54" s="142"/>
-      <c r="AK54" s="142"/>
+      <c r="AI54" s="92"/>
+      <c r="AJ54" s="92"/>
+      <c r="AK54" s="92"/>
       <c r="AL54" s="31"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144" t="s">
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="142"/>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="142" t="s">
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="Q55" s="142"/>
-      <c r="R55" s="142"/>
-      <c r="S55" s="142"/>
-      <c r="T55" s="142"/>
-      <c r="U55" s="142"/>
-      <c r="V55" s="142" t="s">
+      <c r="Q55" s="92"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="W55" s="142"/>
-      <c r="X55" s="142"/>
-      <c r="Y55" s="142"/>
-      <c r="Z55" s="142"/>
-      <c r="AA55" s="142"/>
-      <c r="AB55" s="145" t="s">
+      <c r="W55" s="92"/>
+      <c r="X55" s="92"/>
+      <c r="Y55" s="92"/>
+      <c r="Z55" s="92"/>
+      <c r="AA55" s="92"/>
+      <c r="AB55" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="AC55" s="145"/>
-      <c r="AD55" s="145"/>
-      <c r="AE55" s="145"/>
-      <c r="AF55" s="145"/>
-      <c r="AG55" s="145"/>
-      <c r="AH55" s="142"/>
-      <c r="AI55" s="142"/>
-      <c r="AJ55" s="142"/>
-      <c r="AK55" s="142"/>
+      <c r="AC55" s="94"/>
+      <c r="AD55" s="94"/>
+      <c r="AE55" s="94"/>
+      <c r="AF55" s="94"/>
+      <c r="AG55" s="94"/>
+      <c r="AH55" s="92"/>
+      <c r="AI55" s="92"/>
+      <c r="AJ55" s="92"/>
+      <c r="AK55" s="92"/>
       <c r="AL55" s="31"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="150" t="s">
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="89" t="s">
+      <c r="Q56" s="86"/>
+      <c r="R56" s="86"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q56" s="151"/>
-      <c r="R56" s="151"/>
-      <c r="S56" s="151"/>
-      <c r="T56" s="151"/>
-      <c r="U56" s="151"/>
-      <c r="V56" s="151" t="s">
+      <c r="W56" s="86"/>
+      <c r="X56" s="86"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="86"/>
+      <c r="AB56" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="W56" s="151"/>
-      <c r="X56" s="151"/>
-      <c r="Y56" s="151"/>
-      <c r="Z56" s="151"/>
-      <c r="AA56" s="151"/>
-      <c r="AB56" s="152" t="s">
+      <c r="AC56" s="87"/>
+      <c r="AD56" s="87"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="87"/>
+      <c r="AG56" s="87"/>
+      <c r="AH56" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="AC56" s="152"/>
-      <c r="AD56" s="152"/>
-      <c r="AE56" s="152"/>
-      <c r="AF56" s="152"/>
-      <c r="AG56" s="152"/>
-      <c r="AH56" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI56" s="153"/>
-      <c r="AJ56" s="153"/>
-      <c r="AK56" s="153"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
       <c r="AL56" s="31"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-      <c r="O57" s="144"/>
-      <c r="P57" s="146" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146" t="s">
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="146"/>
-      <c r="Z57" s="146"/>
-      <c r="AA57" s="146"/>
-      <c r="AB57" s="147" t="s">
+      <c r="Q57" s="79"/>
+      <c r="R57" s="79"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="79"/>
+      <c r="U57" s="79"/>
+      <c r="V57" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="W57" s="79"/>
+      <c r="X57" s="79"/>
+      <c r="Y57" s="79"/>
+      <c r="Z57" s="79"/>
+      <c r="AA57" s="79"/>
+      <c r="AB57" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="AC57" s="147"/>
-      <c r="AD57" s="147"/>
-      <c r="AE57" s="147"/>
-      <c r="AF57" s="147"/>
-      <c r="AG57" s="147"/>
-      <c r="AH57" s="148">
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="81">
         <v>1</v>
       </c>
-      <c r="AI57" s="148"/>
-      <c r="AJ57" s="148"/>
-      <c r="AK57" s="148"/>
+      <c r="AI57" s="81"/>
+      <c r="AJ57" s="81"/>
+      <c r="AK57" s="81"/>
       <c r="AL57" s="31"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="128" t="s">
+      <c r="B58" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="128"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="163">
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77">
         <v>0</v>
       </c>
-      <c r="Q58" s="163"/>
-      <c r="R58" s="163"/>
-      <c r="S58" s="163"/>
-      <c r="T58" s="163"/>
-      <c r="U58" s="163"/>
-      <c r="V58" s="163">
+      <c r="Q58" s="77"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="77">
         <v>0</v>
       </c>
-      <c r="W58" s="163"/>
-      <c r="X58" s="163"/>
-      <c r="Y58" s="163"/>
-      <c r="Z58" s="163"/>
-      <c r="AA58" s="163"/>
-      <c r="AB58" s="163">
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
+      <c r="Y58" s="77"/>
+      <c r="Z58" s="77"/>
+      <c r="AA58" s="77"/>
+      <c r="AB58" s="77">
         <v>0</v>
       </c>
-      <c r="AC58" s="163"/>
-      <c r="AD58" s="163"/>
-      <c r="AE58" s="163"/>
-      <c r="AF58" s="163"/>
-      <c r="AG58" s="163"/>
-      <c r="AH58" s="128" t="s">
+      <c r="AC58" s="77"/>
+      <c r="AD58" s="77"/>
+      <c r="AE58" s="77"/>
+      <c r="AF58" s="77"/>
+      <c r="AG58" s="77"/>
+      <c r="AH58" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="AI58" s="128"/>
-      <c r="AJ58" s="128"/>
-      <c r="AK58" s="128"/>
+      <c r="AI58" s="76"/>
+      <c r="AJ58" s="76"/>
+      <c r="AK58" s="76"/>
       <c r="AL58" s="31"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.2">
@@ -4799,326 +4799,326 @@
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="139" t="s">
+      <c r="B60" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="139"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="139"/>
-      <c r="S60" s="139"/>
-      <c r="T60" s="139"/>
-      <c r="U60" s="139"/>
-      <c r="V60" s="139"/>
-      <c r="W60" s="139"/>
-      <c r="X60" s="139"/>
-      <c r="Y60" s="139"/>
-      <c r="Z60" s="139"/>
-      <c r="AA60" s="139"/>
-      <c r="AB60" s="139"/>
-      <c r="AC60" s="139"/>
-      <c r="AD60" s="139"/>
-      <c r="AE60" s="139"/>
-      <c r="AF60" s="139"/>
-      <c r="AG60" s="139"/>
-      <c r="AH60" s="139"/>
-      <c r="AI60" s="139"/>
-      <c r="AJ60" s="139"/>
-      <c r="AK60" s="139"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="59"/>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="59"/>
+      <c r="AE60" s="59"/>
+      <c r="AF60" s="59"/>
+      <c r="AG60" s="59"/>
+      <c r="AH60" s="59"/>
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="59"/>
+      <c r="AK60" s="59"/>
       <c r="AL60" s="31"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="154" t="s">
+      <c r="B61" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
-      <c r="P61" s="155"/>
-      <c r="Q61" s="155"/>
-      <c r="R61" s="155"/>
-      <c r="S61" s="155"/>
-      <c r="T61" s="155"/>
-      <c r="U61" s="155"/>
-      <c r="V61" s="155"/>
-      <c r="W61" s="155"/>
-      <c r="X61" s="155"/>
-      <c r="Y61" s="155"/>
-      <c r="Z61" s="155"/>
-      <c r="AA61" s="155"/>
-      <c r="AB61" s="155"/>
-      <c r="AC61" s="155"/>
-      <c r="AD61" s="155"/>
-      <c r="AE61" s="155"/>
-      <c r="AF61" s="155"/>
-      <c r="AG61" s="155"/>
-      <c r="AH61" s="155"/>
-      <c r="AI61" s="155"/>
-      <c r="AJ61" s="155"/>
-      <c r="AK61" s="156"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+      <c r="AF61" s="68"/>
+      <c r="AG61" s="68"/>
+      <c r="AH61" s="68"/>
+      <c r="AI61" s="68"/>
+      <c r="AJ61" s="68"/>
+      <c r="AK61" s="69"/>
       <c r="AL61" s="31"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="157"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="158"/>
-      <c r="N62" s="158"/>
-      <c r="O62" s="158"/>
-      <c r="P62" s="158"/>
-      <c r="Q62" s="158"/>
-      <c r="R62" s="158"/>
-      <c r="S62" s="158"/>
-      <c r="T62" s="158"/>
-      <c r="U62" s="158"/>
-      <c r="V62" s="158"/>
-      <c r="W62" s="158"/>
-      <c r="X62" s="158"/>
-      <c r="Y62" s="158"/>
-      <c r="Z62" s="158"/>
-      <c r="AA62" s="158"/>
-      <c r="AB62" s="158"/>
-      <c r="AC62" s="158"/>
-      <c r="AD62" s="158"/>
-      <c r="AE62" s="158"/>
-      <c r="AF62" s="158"/>
-      <c r="AG62" s="158"/>
-      <c r="AH62" s="158"/>
-      <c r="AI62" s="158"/>
-      <c r="AJ62" s="158"/>
-      <c r="AK62" s="159"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="71"/>
+      <c r="U62" s="71"/>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="71"/>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="71"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="71"/>
+      <c r="AH62" s="71"/>
+      <c r="AI62" s="71"/>
+      <c r="AJ62" s="71"/>
+      <c r="AK62" s="72"/>
       <c r="AL62" s="31"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="157"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="158"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="158"/>
-      <c r="M63" s="158"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="158"/>
-      <c r="P63" s="158"/>
-      <c r="Q63" s="158"/>
-      <c r="R63" s="158"/>
-      <c r="S63" s="158"/>
-      <c r="T63" s="158"/>
-      <c r="U63" s="158"/>
-      <c r="V63" s="158"/>
-      <c r="W63" s="158"/>
-      <c r="X63" s="158"/>
-      <c r="Y63" s="158"/>
-      <c r="Z63" s="158"/>
-      <c r="AA63" s="158"/>
-      <c r="AB63" s="158"/>
-      <c r="AC63" s="158"/>
-      <c r="AD63" s="158"/>
-      <c r="AE63" s="158"/>
-      <c r="AF63" s="158"/>
-      <c r="AG63" s="158"/>
-      <c r="AH63" s="158"/>
-      <c r="AI63" s="158"/>
-      <c r="AJ63" s="158"/>
-      <c r="AK63" s="159"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="71"/>
+      <c r="U63" s="71"/>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="71"/>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="71"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="71"/>
+      <c r="AG63" s="71"/>
+      <c r="AH63" s="71"/>
+      <c r="AI63" s="71"/>
+      <c r="AJ63" s="71"/>
+      <c r="AK63" s="72"/>
       <c r="AL63" s="31"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="157"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="158"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="158"/>
-      <c r="M64" s="158"/>
-      <c r="N64" s="158"/>
-      <c r="O64" s="158"/>
-      <c r="P64" s="158"/>
-      <c r="Q64" s="158"/>
-      <c r="R64" s="158"/>
-      <c r="S64" s="158"/>
-      <c r="T64" s="158"/>
-      <c r="U64" s="158"/>
-      <c r="V64" s="158"/>
-      <c r="W64" s="158"/>
-      <c r="X64" s="158"/>
-      <c r="Y64" s="158"/>
-      <c r="Z64" s="158"/>
-      <c r="AA64" s="158"/>
-      <c r="AB64" s="158"/>
-      <c r="AC64" s="158"/>
-      <c r="AD64" s="158"/>
-      <c r="AE64" s="158"/>
-      <c r="AF64" s="158"/>
-      <c r="AG64" s="158"/>
-      <c r="AH64" s="158"/>
-      <c r="AI64" s="158"/>
-      <c r="AJ64" s="158"/>
-      <c r="AK64" s="159"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="71"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="71"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="71"/>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="71"/>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="71"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="71"/>
+      <c r="AH64" s="71"/>
+      <c r="AI64" s="71"/>
+      <c r="AJ64" s="71"/>
+      <c r="AK64" s="72"/>
       <c r="AL64" s="32"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="157"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="158"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="158"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="158"/>
-      <c r="M65" s="158"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="158"/>
-      <c r="P65" s="158"/>
-      <c r="Q65" s="158"/>
-      <c r="R65" s="158"/>
-      <c r="S65" s="158"/>
-      <c r="T65" s="158"/>
-      <c r="U65" s="158"/>
-      <c r="V65" s="158"/>
-      <c r="W65" s="158"/>
-      <c r="X65" s="158"/>
-      <c r="Y65" s="158"/>
-      <c r="Z65" s="158"/>
-      <c r="AA65" s="158"/>
-      <c r="AB65" s="158"/>
-      <c r="AC65" s="158"/>
-      <c r="AD65" s="158"/>
-      <c r="AE65" s="158"/>
-      <c r="AF65" s="158"/>
-      <c r="AG65" s="158"/>
-      <c r="AH65" s="158"/>
-      <c r="AI65" s="158"/>
-      <c r="AJ65" s="158"/>
-      <c r="AK65" s="159"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="71"/>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="71"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="71"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="71"/>
+      <c r="AK65" s="72"/>
       <c r="AL65" s="32"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="157"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="158"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="158"/>
-      <c r="I66" s="158"/>
-      <c r="J66" s="158"/>
-      <c r="K66" s="158"/>
-      <c r="L66" s="158"/>
-      <c r="M66" s="158"/>
-      <c r="N66" s="158"/>
-      <c r="O66" s="158"/>
-      <c r="P66" s="158"/>
-      <c r="Q66" s="158"/>
-      <c r="R66" s="158"/>
-      <c r="S66" s="158"/>
-      <c r="T66" s="158"/>
-      <c r="U66" s="158"/>
-      <c r="V66" s="158"/>
-      <c r="W66" s="158"/>
-      <c r="X66" s="158"/>
-      <c r="Y66" s="158"/>
-      <c r="Z66" s="158"/>
-      <c r="AA66" s="158"/>
-      <c r="AB66" s="158"/>
-      <c r="AC66" s="158"/>
-      <c r="AD66" s="158"/>
-      <c r="AE66" s="158"/>
-      <c r="AF66" s="158"/>
-      <c r="AG66" s="158"/>
-      <c r="AH66" s="158"/>
-      <c r="AI66" s="158"/>
-      <c r="AJ66" s="158"/>
-      <c r="AK66" s="159"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="71"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
+      <c r="N66" s="71"/>
+      <c r="O66" s="71"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="71"/>
+      <c r="S66" s="71"/>
+      <c r="T66" s="71"/>
+      <c r="U66" s="71"/>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="71"/>
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="71"/>
+      <c r="AC66" s="71"/>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="71"/>
+      <c r="AH66" s="71"/>
+      <c r="AI66" s="71"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="72"/>
       <c r="AL66" s="32"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="160"/>
-      <c r="C67" s="161"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="161"/>
-      <c r="F67" s="161"/>
-      <c r="G67" s="161"/>
-      <c r="H67" s="161"/>
-      <c r="I67" s="161"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="161"/>
-      <c r="M67" s="161"/>
-      <c r="N67" s="161"/>
-      <c r="O67" s="161"/>
-      <c r="P67" s="161"/>
-      <c r="Q67" s="161"/>
-      <c r="R67" s="161"/>
-      <c r="S67" s="161"/>
-      <c r="T67" s="161"/>
-      <c r="U67" s="161"/>
-      <c r="V67" s="161"/>
-      <c r="W67" s="161"/>
-      <c r="X67" s="161"/>
-      <c r="Y67" s="161"/>
-      <c r="Z67" s="161"/>
-      <c r="AA67" s="161"/>
-      <c r="AB67" s="161"/>
-      <c r="AC67" s="161"/>
-      <c r="AD67" s="161"/>
-      <c r="AE67" s="161"/>
-      <c r="AF67" s="161"/>
-      <c r="AG67" s="161"/>
-      <c r="AH67" s="161"/>
-      <c r="AI67" s="161"/>
-      <c r="AJ67" s="161"/>
-      <c r="AK67" s="162"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74"/>
+      <c r="T67" s="74"/>
+      <c r="U67" s="74"/>
+      <c r="V67" s="74"/>
+      <c r="W67" s="74"/>
+      <c r="X67" s="74"/>
+      <c r="Y67" s="74"/>
+      <c r="Z67" s="74"/>
+      <c r="AA67" s="74"/>
+      <c r="AB67" s="74"/>
+      <c r="AC67" s="74"/>
+      <c r="AD67" s="74"/>
+      <c r="AE67" s="74"/>
+      <c r="AF67" s="74"/>
+      <c r="AG67" s="74"/>
+      <c r="AH67" s="74"/>
+      <c r="AI67" s="74"/>
+      <c r="AJ67" s="74"/>
+      <c r="AK67" s="75"/>
       <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
@@ -5163,86 +5163,86 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="139"/>
-      <c r="K69" s="139"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="139"/>
-      <c r="W69" s="139"/>
-      <c r="X69" s="139"/>
-      <c r="Y69" s="139"/>
-      <c r="Z69" s="139"/>
-      <c r="AA69" s="139"/>
-      <c r="AB69" s="139"/>
-      <c r="AC69" s="139"/>
-      <c r="AD69" s="139"/>
-      <c r="AE69" s="139"/>
-      <c r="AF69" s="139"/>
-      <c r="AG69" s="139"/>
-      <c r="AH69" s="139"/>
-      <c r="AI69" s="139"/>
-      <c r="AJ69" s="139"/>
-      <c r="AK69" s="139"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="59"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="59"/>
+      <c r="AE69" s="59"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="59"/>
+      <c r="AH69" s="59"/>
+      <c r="AI69" s="59"/>
+      <c r="AJ69" s="59"/>
+      <c r="AK69" s="59"/>
       <c r="AL69" s="32"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="91"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
-      <c r="X70" s="91"/>
-      <c r="Y70" s="91"/>
-      <c r="Z70" s="91"/>
-      <c r="AA70" s="91"/>
-      <c r="AB70" s="91"/>
-      <c r="AC70" s="91"/>
-      <c r="AD70" s="91"/>
-      <c r="AE70" s="91"/>
-      <c r="AF70" s="91"/>
-      <c r="AG70" s="91"/>
-      <c r="AH70" s="91"/>
-      <c r="AI70" s="91"/>
-      <c r="AJ70" s="91"/>
-      <c r="AK70" s="91"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="66"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="66"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="66"/>
+      <c r="Z70" s="66"/>
+      <c r="AA70" s="66"/>
+      <c r="AB70" s="66"/>
+      <c r="AC70" s="66"/>
+      <c r="AD70" s="66"/>
+      <c r="AE70" s="66"/>
+      <c r="AF70" s="66"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
+      <c r="AJ70" s="66"/>
+      <c r="AK70" s="66"/>
       <c r="AL70" s="31"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
@@ -5287,86 +5287,86 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
-      <c r="B72" s="139" t="s">
+      <c r="B72" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="139"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-      <c r="G72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="139"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="139"/>
-      <c r="P72" s="139"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="139"/>
-      <c r="S72" s="139"/>
-      <c r="T72" s="139"/>
-      <c r="U72" s="139"/>
-      <c r="V72" s="139"/>
-      <c r="W72" s="139"/>
-      <c r="X72" s="139"/>
-      <c r="Y72" s="139"/>
-      <c r="Z72" s="139"/>
-      <c r="AA72" s="139"/>
-      <c r="AB72" s="139"/>
-      <c r="AC72" s="139"/>
-      <c r="AD72" s="139"/>
-      <c r="AE72" s="139"/>
-      <c r="AF72" s="139"/>
-      <c r="AG72" s="139"/>
-      <c r="AH72" s="139"/>
-      <c r="AI72" s="139"/>
-      <c r="AJ72" s="139"/>
-      <c r="AK72" s="139"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="59"/>
+      <c r="AG72" s="59"/>
+      <c r="AH72" s="59"/>
+      <c r="AI72" s="59"/>
+      <c r="AJ72" s="59"/>
+      <c r="AK72" s="59"/>
       <c r="AL72" s="31"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
-      <c r="B73" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="91"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="91"/>
-      <c r="V73" s="91"/>
-      <c r="W73" s="91"/>
-      <c r="X73" s="91"/>
-      <c r="Y73" s="91"/>
-      <c r="Z73" s="91"/>
-      <c r="AA73" s="91"/>
-      <c r="AB73" s="91"/>
-      <c r="AC73" s="91"/>
-      <c r="AD73" s="91"/>
-      <c r="AE73" s="91"/>
-      <c r="AF73" s="91"/>
-      <c r="AG73" s="91"/>
-      <c r="AH73" s="91"/>
-      <c r="AI73" s="91"/>
-      <c r="AJ73" s="91"/>
-      <c r="AK73" s="91"/>
+      <c r="B73" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="66"/>
+      <c r="AC73" s="66"/>
+      <c r="AD73" s="66"/>
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="66"/>
+      <c r="AG73" s="66"/>
+      <c r="AH73" s="66"/>
+      <c r="AI73" s="66"/>
+      <c r="AJ73" s="66"/>
+      <c r="AK73" s="66"/>
       <c r="AL73" s="31"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
@@ -5411,44 +5411,44 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="46"/>
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="139"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="139"/>
-      <c r="G75" s="139"/>
-      <c r="H75" s="139"/>
-      <c r="I75" s="139"/>
-      <c r="J75" s="139"/>
-      <c r="K75" s="139"/>
-      <c r="L75" s="139"/>
-      <c r="M75" s="139"/>
-      <c r="N75" s="139"/>
-      <c r="O75" s="139"/>
-      <c r="P75" s="139"/>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="139"/>
-      <c r="S75" s="139"/>
-      <c r="T75" s="139"/>
-      <c r="U75" s="139"/>
-      <c r="V75" s="139"/>
-      <c r="W75" s="139"/>
-      <c r="X75" s="139"/>
-      <c r="Y75" s="139"/>
-      <c r="Z75" s="139"/>
-      <c r="AA75" s="139"/>
-      <c r="AB75" s="139"/>
-      <c r="AC75" s="139"/>
-      <c r="AD75" s="139"/>
-      <c r="AE75" s="139"/>
-      <c r="AF75" s="139"/>
-      <c r="AG75" s="139"/>
-      <c r="AH75" s="139"/>
-      <c r="AI75" s="139"/>
-      <c r="AJ75" s="139"/>
-      <c r="AK75" s="139"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="59"/>
+      <c r="Z75" s="59"/>
+      <c r="AA75" s="59"/>
+      <c r="AB75" s="59"/>
+      <c r="AC75" s="59"/>
+      <c r="AD75" s="59"/>
+      <c r="AE75" s="59"/>
+      <c r="AF75" s="59"/>
+      <c r="AG75" s="59"/>
+      <c r="AH75" s="59"/>
+      <c r="AI75" s="59"/>
+      <c r="AJ75" s="59"/>
+      <c r="AK75" s="59"/>
       <c r="AL75" s="32"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
@@ -5534,49 +5534,49 @@
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="45"/>
-      <c r="C78" s="167" t="s">
+      <c r="C78" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="167" t="s">
+      <c r="J78" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="K78" s="167"/>
-      <c r="L78" s="167"/>
-      <c r="M78" s="167"/>
-      <c r="N78" s="167"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="167" t="s">
+      <c r="Q78" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="R78" s="167"/>
-      <c r="S78" s="167"/>
-      <c r="T78" s="167"/>
-      <c r="U78" s="167"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+      <c r="U78" s="63"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="167" t="s">
+      <c r="X78" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="Y78" s="167"/>
-      <c r="Z78" s="167"/>
-      <c r="AA78" s="167"/>
-      <c r="AB78" s="167"/>
+      <c r="Y78" s="63"/>
+      <c r="Z78" s="63"/>
+      <c r="AA78" s="63"/>
+      <c r="AB78" s="63"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
-      <c r="AE78" s="167" t="s">
+      <c r="AE78" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="AF78" s="167"/>
-      <c r="AG78" s="167"/>
-      <c r="AH78" s="167"/>
-      <c r="AI78" s="167"/>
+      <c r="AF78" s="63"/>
+      <c r="AG78" s="63"/>
+      <c r="AH78" s="63"/>
+      <c r="AI78" s="63"/>
       <c r="AJ78" s="5"/>
       <c r="AK78" s="36"/>
       <c r="AL78" s="32"/>
@@ -5585,58 +5585,58 @@
       <c r="A79" s="2"/>
       <c r="B79" s="40"/>
       <c r="C79" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="168"/>
+      <c r="D79" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
       <c r="H79" s="41"/>
       <c r="I79" s="5"/>
       <c r="J79" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="K79" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="L79" s="168"/>
-      <c r="M79" s="168"/>
-      <c r="N79" s="168"/>
+        <v>158</v>
+      </c>
+      <c r="K79" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="L79" s="64"/>
+      <c r="M79" s="64"/>
+      <c r="N79" s="64"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="R79" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="S79" s="168"/>
-      <c r="T79" s="168"/>
-      <c r="U79" s="168"/>
+        <v>159</v>
+      </c>
+      <c r="R79" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="S79" s="64"/>
+      <c r="T79" s="64"/>
+      <c r="U79" s="64"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y79" s="168" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z79" s="168"/>
-      <c r="AA79" s="168"/>
-      <c r="AB79" s="168"/>
+        <v>160</v>
+      </c>
+      <c r="Y79" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z79" s="64"/>
+      <c r="AA79" s="64"/>
+      <c r="AB79" s="64"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF79" s="168" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG79" s="168"/>
-      <c r="AH79" s="168"/>
-      <c r="AI79" s="168"/>
+        <v>161</v>
+      </c>
+      <c r="AF79" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG79" s="64"/>
+      <c r="AH79" s="64"/>
+      <c r="AI79" s="64"/>
       <c r="AJ79" s="41"/>
       <c r="AK79" s="36"/>
       <c r="AL79" s="32"/>
@@ -5645,38 +5645,38 @@
       <c r="A80" s="2"/>
       <c r="B80" s="38"/>
       <c r="C80" s="55"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="169"/>
-      <c r="F80" s="169"/>
-      <c r="G80" s="169"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="55"/>
-      <c r="K80" s="169"/>
-      <c r="L80" s="169"/>
-      <c r="M80" s="169"/>
-      <c r="N80" s="169"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+      <c r="M80" s="65"/>
+      <c r="N80" s="65"/>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
       <c r="Q80" s="55"/>
-      <c r="R80" s="169"/>
-      <c r="S80" s="169"/>
-      <c r="T80" s="169"/>
-      <c r="U80" s="169"/>
+      <c r="R80" s="65"/>
+      <c r="S80" s="65"/>
+      <c r="T80" s="65"/>
+      <c r="U80" s="65"/>
       <c r="V80" s="37"/>
       <c r="W80" s="37"/>
       <c r="X80" s="55"/>
-      <c r="Y80" s="169"/>
-      <c r="Z80" s="169"/>
-      <c r="AA80" s="169"/>
-      <c r="AB80" s="169"/>
+      <c r="Y80" s="65"/>
+      <c r="Z80" s="65"/>
+      <c r="AA80" s="65"/>
+      <c r="AB80" s="65"/>
       <c r="AC80" s="37"/>
       <c r="AD80" s="37"/>
       <c r="AE80" s="55"/>
-      <c r="AF80" s="169"/>
-      <c r="AG80" s="169"/>
-      <c r="AH80" s="169"/>
-      <c r="AI80" s="169"/>
+      <c r="AF80" s="65"/>
+      <c r="AG80" s="65"/>
+      <c r="AH80" s="65"/>
+      <c r="AI80" s="65"/>
       <c r="AJ80" s="37"/>
       <c r="AK80" s="39"/>
       <c r="AL80" s="32"/>
@@ -5723,86 +5723,86 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
-      <c r="B82" s="139" t="s">
+      <c r="B82" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="139"/>
-      <c r="D82" s="139"/>
-      <c r="E82" s="139"/>
-      <c r="F82" s="139"/>
-      <c r="G82" s="139"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="139"/>
-      <c r="J82" s="139"/>
-      <c r="K82" s="139"/>
-      <c r="L82" s="139"/>
-      <c r="M82" s="139"/>
-      <c r="N82" s="139"/>
-      <c r="O82" s="139"/>
-      <c r="P82" s="139"/>
-      <c r="Q82" s="139"/>
-      <c r="R82" s="139"/>
-      <c r="S82" s="139"/>
-      <c r="T82" s="139"/>
-      <c r="U82" s="139"/>
-      <c r="V82" s="139"/>
-      <c r="W82" s="139"/>
-      <c r="X82" s="139"/>
-      <c r="Y82" s="139"/>
-      <c r="Z82" s="139"/>
-      <c r="AA82" s="139"/>
-      <c r="AB82" s="139"/>
-      <c r="AC82" s="139"/>
-      <c r="AD82" s="139"/>
-      <c r="AE82" s="139"/>
-      <c r="AF82" s="139"/>
-      <c r="AG82" s="139"/>
-      <c r="AH82" s="139"/>
-      <c r="AI82" s="139"/>
-      <c r="AJ82" s="139"/>
-      <c r="AK82" s="139"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="59"/>
+      <c r="V82" s="59"/>
+      <c r="W82" s="59"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="59"/>
+      <c r="Z82" s="59"/>
+      <c r="AA82" s="59"/>
+      <c r="AB82" s="59"/>
+      <c r="AC82" s="59"/>
+      <c r="AD82" s="59"/>
+      <c r="AE82" s="59"/>
+      <c r="AF82" s="59"/>
+      <c r="AG82" s="59"/>
+      <c r="AH82" s="59"/>
+      <c r="AI82" s="59"/>
+      <c r="AJ82" s="59"/>
+      <c r="AK82" s="59"/>
       <c r="AL82" s="32"/>
     </row>
     <row r="83" spans="1:44" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
-      <c r="B83" s="164" t="s">
+      <c r="B83" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-      <c r="E83" s="165"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="165"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="165"/>
-      <c r="K83" s="165"/>
-      <c r="L83" s="165"/>
-      <c r="M83" s="165"/>
-      <c r="N83" s="165"/>
-      <c r="O83" s="165"/>
-      <c r="P83" s="165"/>
-      <c r="Q83" s="165"/>
-      <c r="R83" s="165"/>
-      <c r="S83" s="165"/>
-      <c r="T83" s="165"/>
-      <c r="U83" s="165"/>
-      <c r="V83" s="165"/>
-      <c r="W83" s="165"/>
-      <c r="X83" s="165"/>
-      <c r="Y83" s="165"/>
-      <c r="Z83" s="165"/>
-      <c r="AA83" s="165"/>
-      <c r="AB83" s="165"/>
-      <c r="AC83" s="165"/>
-      <c r="AD83" s="165"/>
-      <c r="AE83" s="165"/>
-      <c r="AF83" s="165"/>
-      <c r="AG83" s="165"/>
-      <c r="AH83" s="165"/>
-      <c r="AI83" s="165"/>
-      <c r="AJ83" s="165"/>
-      <c r="AK83" s="166"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="61"/>
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61"/>
+      <c r="AA83" s="61"/>
+      <c r="AB83" s="61"/>
+      <c r="AC83" s="61"/>
+      <c r="AD83" s="61"/>
+      <c r="AE83" s="61"/>
+      <c r="AF83" s="61"/>
+      <c r="AG83" s="61"/>
+      <c r="AH83" s="61"/>
+      <c r="AI83" s="61"/>
+      <c r="AJ83" s="61"/>
+      <c r="AK83" s="62"/>
       <c r="AL83" s="31"/>
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.2">
@@ -5848,7 +5848,7 @@
     <row r="85" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
@@ -5889,7 +5889,7 @@
     <row r="86" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
@@ -7000,67 +7000,103 @@
     </row>
   </sheetData>
   <mergeCells count="177">
-    <mergeCell ref="B75:AK75"/>
-    <mergeCell ref="B82:AK82"/>
-    <mergeCell ref="B83:AK83"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="AE78:AI78"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="Q78:U78"/>
-    <mergeCell ref="X78:AB78"/>
-    <mergeCell ref="D79:G80"/>
-    <mergeCell ref="K79:N80"/>
-    <mergeCell ref="R79:U80"/>
-    <mergeCell ref="Y79:AB80"/>
-    <mergeCell ref="AF79:AI80"/>
-    <mergeCell ref="B69:AK69"/>
-    <mergeCell ref="B70:AK70"/>
-    <mergeCell ref="B72:AK72"/>
-    <mergeCell ref="B73:AK73"/>
-    <mergeCell ref="B61:AK67"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="V58:AA58"/>
-    <mergeCell ref="AB58:AG58"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="B60:AK60"/>
-    <mergeCell ref="B57:O57"/>
-    <mergeCell ref="P57:U57"/>
-    <mergeCell ref="V57:AA57"/>
-    <mergeCell ref="AB57:AG57"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:U56"/>
-    <mergeCell ref="V56:AA56"/>
-    <mergeCell ref="AB56:AG56"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:AK53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:O55"/>
-    <mergeCell ref="P54:AG54"/>
-    <mergeCell ref="AH54:AK55"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="P55:U55"/>
-    <mergeCell ref="V55:AA55"/>
-    <mergeCell ref="AB55:AG55"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="D46:AK46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="Q51:W51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="I42:Z44"/>
-    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AK5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:AB10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="G11:AB11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:AK13"/>
+    <mergeCell ref="G14:AK14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:AC16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AK24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AE30"/>
+    <mergeCell ref="AF27:AK30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:Y30"/>
     <mergeCell ref="B41:Z41"/>
     <mergeCell ref="AA41:AE41"/>
     <mergeCell ref="AF41:AK41"/>
@@ -7080,103 +7116,67 @@
     <mergeCell ref="B40:Z40"/>
     <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="AF40:AK40"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AE30"/>
-    <mergeCell ref="AF27:AK30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:Y30"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AK24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AK21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AK23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:AC16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:AK13"/>
-    <mergeCell ref="G14:AK14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:AB10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="G11:AB11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AK5"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="D46:AK46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="Q51:W51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="I42:Z44"/>
+    <mergeCell ref="B43:H44"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:AK53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:O55"/>
+    <mergeCell ref="P54:AG54"/>
+    <mergeCell ref="AH54:AK55"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="P55:U55"/>
+    <mergeCell ref="V55:AA55"/>
+    <mergeCell ref="AB55:AG55"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="P57:U57"/>
+    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="AB57:AG57"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:U56"/>
+    <mergeCell ref="V56:AA56"/>
+    <mergeCell ref="AB56:AG56"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="B69:AK69"/>
+    <mergeCell ref="B70:AK70"/>
+    <mergeCell ref="B72:AK72"/>
+    <mergeCell ref="B73:AK73"/>
+    <mergeCell ref="B61:AK67"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="V58:AA58"/>
+    <mergeCell ref="AB58:AG58"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="B60:AK60"/>
+    <mergeCell ref="B75:AK75"/>
+    <mergeCell ref="B82:AK82"/>
+    <mergeCell ref="B83:AK83"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="AE78:AI78"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="Q78:U78"/>
+    <mergeCell ref="X78:AB78"/>
+    <mergeCell ref="D79:G80"/>
+    <mergeCell ref="K79:N80"/>
+    <mergeCell ref="R79:U80"/>
+    <mergeCell ref="Y79:AB80"/>
+    <mergeCell ref="AF79:AI80"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC19" r:id="rId1" display="nelsonhm@tyrsa.com.mx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
